--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/AHLE scenario parameters SMALLRUMINANTS.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/AHLE scenario parameters SMALLRUMINANTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FFCB95-D49D-40A3-8E92-17BF6F4C58C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94231E52-E27C-2741-892C-F36F3A8F2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -157,16 +157,58 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-the lower bound for prlificay rate should be 1 not 0  so 0 is replaced by 1</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the lower bound for prlificay rate should be 1 not 0  so 0 is replaced by 1</t>
         </r>
       </text>
     </comment>
     <comment ref="F19" authorId="1" shapeId="0" xr:uid="{6DC4216F-9727-4EAB-8E6D-D62C6761C533}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>it was 0.6 by mistake but now corrected to correct one 0.06</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="1" shapeId="0" xr:uid="{86EEC95D-0E12-4626-92F2-F35FA0B6440C}">
       <text>
         <r>
           <rPr>
@@ -186,56 +228,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-it was 0.6 by mistake but now corrected to correct proportion 0.06. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{EE5479B8-056C-4FE0-B874-0EB261FAE33E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-note also the experts give less value for the ideal daily milk yield and lactation length so the current values are used for the ideal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L21" authorId="1" shapeId="0" xr:uid="{60DC48A3-212F-40DF-A827-286F0734600C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>WT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WT:
-expert elicited ideal values for milk production parameteres (daily yield and lactation length)  were less than current so c</t>
+expert elicited ideal values for milk production parameteres (daily yield and lactation length)  were less than current so current values are used </t>
         </r>
       </text>
     </comment>
@@ -292,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="272">
   <si>
     <t># Initial population</t>
   </si>
@@ -585,12 +578,6 @@
     <t>rpert(10000, 0.37, 0.50, 0.46)</t>
   </si>
   <si>
-    <t>0.09/12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71/12 </t>
-  </si>
-  <si>
     <t>rpert(1000, 0.12/6, 0.39/6, 0.26/6)</t>
   </si>
   <si>
@@ -603,9 +590,6 @@
     <t>rpert(1000, 0.05/12, 0.13/12, 0.09/12)</t>
   </si>
   <si>
-    <t>1/108</t>
-  </si>
-  <si>
     <t>rtruncnorm(10000, a = 1, b = 15, mean = 8.5, sd = 1.6)</t>
   </si>
   <si>
@@ -663,21 +647,9 @@
     <t>Past_G_all_mortality_zero</t>
   </si>
   <si>
-    <t>0.02/12</t>
-  </si>
-  <si>
-    <t>0.12/12</t>
-  </si>
-  <si>
     <t>rpert(1000, 0.35/6, 0.35/6, 0.35/6)</t>
   </si>
   <si>
-    <t>0.02/13</t>
-  </si>
-  <si>
-    <t>0.12/13</t>
-  </si>
-  <si>
     <t>rnorm(10000, 19.1, sd = 0.48)</t>
   </si>
   <si>
@@ -697,12 +669,6 @@
   </si>
   <si>
     <t>rpert(10000, 1, 1.5, 1.1 )</t>
-  </si>
-  <si>
-    <t>0.13/12</t>
-  </si>
-  <si>
-    <t>0.63/12</t>
   </si>
   <si>
     <t>rpert(1000, 0.03/6, 0.6/6, 0.18/6)</t>
@@ -1580,7 +1546,29 @@
     </r>
   </si>
   <si>
-    <t>rtruncnorm(10000,1, 3, 1.3, 0.15)</t>
+    <r>
+      <t>rtruncnorm(10000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3, 1.3, 0.15)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1759,7 +1747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1833,6 +1821,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,35 +2143,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
   <dimension ref="A1:N577"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="26" style="5" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="24.5" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>90</v>
@@ -2203,27 +2192,27 @@
         <v>95</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="15">
         <v>12</v>
@@ -2262,7 +2251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -2279,9 +2268,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -2323,9 +2312,9 @@
         <v>2931658</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2367,9 +2356,9 @@
         <v>1974212</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -2411,9 +2400,9 @@
         <v>2563862</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2455,9 +2444,9 @@
         <v>1533797</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2499,9 +2488,9 @@
         <v>15741790</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2543,7 +2532,7 @@
         <v>5555576</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2557,7 +2546,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
@@ -2578,9 +2567,9 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" ref="C12:E12" si="0">1/6</f>
@@ -2622,7 +2611,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2636,7 +2625,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -2653,15 +2642,15 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>74</v>
@@ -2670,7 +2659,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>96</v>
@@ -2679,7 +2668,7 @@
         <v>74</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>74</v>
@@ -2688,54 +2677,54 @@
         <v>96</v>
       </c>
       <c r="M15" s="41" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="M16" s="41" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2749,7 +2738,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>9</v>
       </c>
@@ -2766,9 +2755,9 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C19" s="12">
         <v>0</v>
@@ -2807,12 +2796,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C20" s="12">
         <v>0</v>
@@ -2851,9 +2840,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C21" s="12">
         <v>0</v>
@@ -2892,9 +2881,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" s="12">
         <v>0</v>
@@ -2933,7 +2922,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -2953,7 +2942,7 @@
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
@@ -2970,7 +2959,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -2987,7 +2976,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -3004,101 +2993,119 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="17">
-        <f>0.04/12</f>
-        <v>3.3333333333333335E-3</v>
+        <f>(0.04/12)-(C37)</f>
+        <v>-5.9259259259259248E-3</v>
       </c>
       <c r="D27" s="17">
-        <f t="shared" ref="D27:E27" si="1">0.04/12</f>
-        <v>3.3333333333333335E-3</v>
+        <f>(0.04/12)-(D37)</f>
+        <v>-5.9259259259259248E-3</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D27:E27" si="1">(0.04/12)-(E37)</f>
+        <v>-5.9259259259259248E-3</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" ref="F27:H28" si="2" xml:space="preserve"> (0.09/12)-(F37)</f>
+        <v>-1.759259259259259E-3</v>
+      </c>
+      <c r="G27" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.759259259259259E-3</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.759259259259259E-3</v>
+      </c>
+      <c r="I27" s="12">
+        <f>(0.02/12)-(I37)</f>
+        <v>-7.5925925925925918E-3</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" ref="J27:K27" si="3">(0.02/12)-(J37)</f>
+        <v>-7.5925925925925918E-3</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="3"/>
+        <v>-7.5925925925925918E-3</v>
+      </c>
+      <c r="L27" s="2">
+        <f>(0.13/12)-(L37)</f>
+        <v>1.574074074074075E-3</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27:N27" si="4">(0.13/12)-(M37)</f>
+        <v>1.574074074074075E-3</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="4"/>
+        <v>1.574074074074075E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="12">
-        <f>0.54/12</f>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" ref="D28:E28" si="2">0.54/12</f>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="C28" s="27">
+        <f xml:space="preserve"> (0.54/12)-(C38)</f>
+        <v>2.4166666666666673E-2</v>
+      </c>
+      <c r="D28" s="27">
+        <f t="shared" ref="D28:E28" si="5" xml:space="preserve"> (0.54/12)-(D38)</f>
+        <v>2.4166666666666673E-2</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="5"/>
+        <v>2.4166666666666673E-2</v>
+      </c>
+      <c r="F28" s="47">
         <f t="shared" si="2"/>
-        <v>4.5000000000000005E-2</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-1.3333333333333332E-2</v>
+      </c>
+      <c r="G28" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.3333333333333332E-2</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="2"/>
+        <v>-1.3333333333333332E-2</v>
+      </c>
+      <c r="I28" s="12">
+        <f>(0.02/12)-(I38)</f>
+        <v>-1.9166666666666665E-2</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" ref="J28:K28" si="6">(0.02/12)-(J38)</f>
+        <v>-1.9166666666666665E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="6"/>
+        <v>-1.9166666666666665E-2</v>
+      </c>
+      <c r="L28" s="2">
+        <f>(0.13/12)-(L38)</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28:N28" si="7">(0.13/12)-(M38)</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="7"/>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3112,7 +3119,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>15</v>
       </c>
@@ -3129,9 +3136,9 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -3146,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G31" s="20">
         <v>0</v>
@@ -3155,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J31" s="12">
         <v>0</v>
@@ -3164,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -3173,9 +3180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -3190,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G32" s="20">
         <v>0</v>
@@ -3208,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M32" s="2">
         <v>0</v>
@@ -3217,9 +3224,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -3234,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G33" s="20">
         <v>0</v>
@@ -3252,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -3261,9 +3268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -3278,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G34" s="20">
         <v>0</v>
@@ -3296,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -3305,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3319,7 +3326,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>20</v>
       </c>
@@ -3336,9 +3343,9 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -3348,11 +3355,11 @@
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" ref="D37:E37" si="3">1/108</f>
+        <f t="shared" ref="D37:E37" si="8">1/108</f>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.2592592592592587E-3</v>
       </c>
       <c r="F37" s="24">
@@ -3364,28 +3371,34 @@
       <c r="H37" s="24">
         <v>9.2592592592592587E-3</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="12">
+        <f>1/108</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" ref="J37:N37" si="9">1/108</f>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="9"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="9"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="9"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="9"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -3395,11 +3408,11 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" ref="D38:E38" si="4">1/48</f>
+        <f t="shared" ref="D38:E38" si="10">1/48</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="F38" s="24">
@@ -3430,7 +3443,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -3444,7 +3457,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>23</v>
       </c>
@@ -3461,7 +3474,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -3475,7 +3488,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -3492,9 +3505,9 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -3503,86 +3516,86 @@
         <v>80</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>80</v>
       </c>
       <c r="J43" s="43" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M43" s="41" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>80</v>
       </c>
       <c r="J44" s="43" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M44" s="41" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -3591,42 +3604,42 @@
         <v>82</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M45" s="41" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3641,36 +3654,36 @@
         <v>82</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M46" s="41" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -3679,42 +3692,42 @@
         <v>84</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G47" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M47" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="H47" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" s="41" t="s">
-        <v>278</v>
-      </c>
       <c r="N47" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -3723,40 +3736,40 @@
         <v>85</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G48" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="H48" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M48" s="41" t="s">
-        <v>279</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -3770,7 +3783,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>30</v>
       </c>
@@ -3787,9 +3800,9 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
@@ -3831,7 +3844,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -3845,7 +3858,7 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>32</v>
       </c>
@@ -3862,7 +3875,7 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>33</v>
       </c>
@@ -3879,271 +3892,271 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D55" s="38" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J55" s="45" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M55" s="41" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="J56" s="45" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M56" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H57" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J57" s="45" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="K57" s="16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G58" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J58" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="H58" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J58" s="45" t="s">
-        <v>242</v>
-      </c>
       <c r="K58" s="12" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="M58" s="41" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
         <v>38</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H59" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J59" s="45" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M59" s="41" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
         <v>39</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="J60" s="45" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M60" s="41" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
@@ -4157,7 +4170,7 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>40</v>
       </c>
@@ -4174,9 +4187,9 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C63" s="12">
         <v>0.25</v>
@@ -4197,7 +4210,7 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -4211,7 +4224,7 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>41</v>
       </c>
@@ -4228,7 +4241,7 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>42</v>
       </c>
@@ -4245,9 +4258,9 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
         <v>43</v>
@@ -4289,9 +4302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C68" s="12">
         <v>0.5</v>
@@ -4330,7 +4343,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -4344,7 +4357,7 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>44</v>
       </c>
@@ -4361,9 +4374,9 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C71" s="12">
         <v>40</v>
@@ -4402,7 +4415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -4416,7 +4429,7 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>45</v>
       </c>
@@ -4433,9 +4446,9 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -4450,36 +4463,36 @@
         <v>0.1</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -4494,36 +4507,36 @@
         <v>0.2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -4538,34 +4551,34 @@
         <v>0.3</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -4579,7 +4592,7 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>49</v>
       </c>
@@ -4596,9 +4609,9 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C79" s="12">
         <v>0.5</v>
@@ -4637,7 +4650,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>50</v>
       </c>
@@ -4654,7 +4667,7 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>51</v>
       </c>
@@ -4671,9 +4684,9 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>52</v>
@@ -4715,9 +4728,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
         <v>52</v>
@@ -4759,9 +4772,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
@@ -4803,9 +4816,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
@@ -4847,9 +4860,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
@@ -4891,9 +4904,9 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
@@ -4935,7 +4948,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
@@ -4949,7 +4962,7 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>55</v>
       </c>
@@ -4966,7 +4979,7 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>56</v>
       </c>
@@ -4983,9 +4996,9 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C91" s="12">
         <v>0.25</v>
@@ -5024,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -5038,7 +5051,7 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>57</v>
       </c>
@@ -5055,7 +5068,7 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>56</v>
       </c>
@@ -5072,9 +5085,9 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C95" s="12">
         <v>0.5</v>
@@ -5113,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
@@ -5127,7 +5140,7 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>58</v>
       </c>
@@ -5144,9 +5157,9 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B98" t="s">
         <v>59</v>
@@ -5188,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
@@ -5202,7 +5215,7 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>60</v>
       </c>
@@ -5219,7 +5232,7 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>61</v>
       </c>
@@ -5236,7 +5249,7 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>62</v>
       </c>
@@ -5253,9 +5266,9 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
         <v>63</v>
@@ -5270,13 +5283,13 @@
         <v>87</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H103" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I103" s="12" t="s">
         <v>87</v>
@@ -5297,7 +5310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
@@ -5311,7 +5324,7 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>64</v>
       </c>
@@ -5328,7 +5341,7 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>65</v>
       </c>
@@ -5345,7 +5358,7 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>66</v>
       </c>
@@ -5362,9 +5375,9 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>88</v>
@@ -5403,9 +5416,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C109" s="12">
         <v>1</v>
@@ -5444,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -5458,7 +5471,7 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>67</v>
       </c>
@@ -5475,7 +5488,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>65</v>
       </c>
@@ -5492,7 +5505,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>68</v>
       </c>
@@ -5509,7 +5522,7 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>69</v>
       </c>
@@ -5526,9 +5539,9 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B115" t="s">
         <v>70</v>
@@ -5570,7 +5583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
@@ -5584,7 +5597,7 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>71</v>
       </c>
@@ -5601,7 +5614,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>72</v>
       </c>
@@ -5618,9 +5631,9 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C119" s="12">
         <v>0</v>
@@ -5659,9 +5672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C120" s="12">
         <v>1</v>
@@ -5700,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
@@ -5713,7 +5726,7 @@
       <c r="L121" s="31"/>
       <c r="M121" s="31"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
@@ -5726,7 +5739,7 @@
       <c r="L122" s="31"/>
       <c r="M122" s="31"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
@@ -5739,7 +5752,7 @@
       <c r="L123" s="31"/>
       <c r="M123" s="31"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
@@ -5752,7 +5765,7 @@
       <c r="L124" s="31"/>
       <c r="M124" s="31"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
@@ -5765,7 +5778,7 @@
       <c r="L125" s="31"/>
       <c r="M125" s="31"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
@@ -5778,7 +5791,7 @@
       <c r="L126" s="31"/>
       <c r="M126" s="31"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
@@ -5791,7 +5804,7 @@
       <c r="L127" s="31"/>
       <c r="M127" s="31"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
@@ -5804,7 +5817,7 @@
       <c r="L128" s="31"/>
       <c r="M128" s="31"/>
     </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
@@ -5817,7 +5830,7 @@
       <c r="L129" s="31"/>
       <c r="M129" s="31"/>
     </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
@@ -5830,7 +5843,7 @@
       <c r="L130" s="31"/>
       <c r="M130" s="31"/>
     </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
@@ -5843,7 +5856,7 @@
       <c r="L131" s="31"/>
       <c r="M131" s="31"/>
     </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
@@ -5856,7 +5869,7 @@
       <c r="L132" s="31"/>
       <c r="M132" s="31"/>
     </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
@@ -5869,7 +5882,7 @@
       <c r="L133" s="31"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
@@ -5882,7 +5895,7 @@
       <c r="L134" s="31"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
@@ -5895,7 +5908,7 @@
       <c r="L135" s="31"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
@@ -5908,7 +5921,7 @@
       <c r="L136" s="31"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
@@ -5921,7 +5934,7 @@
       <c r="L137" s="31"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
@@ -5934,7 +5947,7 @@
       <c r="L138" s="31"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
@@ -5947,7 +5960,7 @@
       <c r="L139" s="31"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
@@ -5960,7 +5973,7 @@
       <c r="L140" s="31"/>
       <c r="M140" s="31"/>
     </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
       <c r="E141" s="31"/>
@@ -5973,7 +5986,7 @@
       <c r="L141" s="31"/>
       <c r="M141" s="31"/>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
       <c r="E142" s="31"/>
@@ -5986,7 +5999,7 @@
       <c r="L142" s="31"/>
       <c r="M142" s="31"/>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
@@ -5999,7 +6012,7 @@
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
     </row>
-    <row r="144" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
       <c r="E144" s="31"/>
@@ -6012,7 +6025,7 @@
       <c r="L144" s="31"/>
       <c r="M144" s="31"/>
     </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
       <c r="E145" s="31"/>
@@ -6025,7 +6038,7 @@
       <c r="L145" s="31"/>
       <c r="M145" s="31"/>
     </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
@@ -6038,7 +6051,7 @@
       <c r="L146" s="31"/>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
@@ -6051,7 +6064,7 @@
       <c r="L147" s="31"/>
       <c r="M147" s="31"/>
     </row>
-    <row r="148" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
       <c r="E148" s="31"/>
@@ -6064,7 +6077,7 @@
       <c r="L148" s="31"/>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
@@ -6077,7 +6090,7 @@
       <c r="L149" s="31"/>
       <c r="M149" s="31"/>
     </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
@@ -6090,7 +6103,7 @@
       <c r="L150" s="31"/>
       <c r="M150" s="31"/>
     </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
@@ -6103,7 +6116,7 @@
       <c r="L151" s="31"/>
       <c r="M151" s="31"/>
     </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
@@ -6116,7 +6129,7 @@
       <c r="L152" s="31"/>
       <c r="M152" s="31"/>
     </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
@@ -6129,7 +6142,7 @@
       <c r="L153" s="31"/>
       <c r="M153" s="31"/>
     </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C154" s="31"/>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
@@ -6142,7 +6155,7 @@
       <c r="L154" s="31"/>
       <c r="M154" s="31"/>
     </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
       <c r="E155" s="31"/>
@@ -6155,7 +6168,7 @@
       <c r="L155" s="31"/>
       <c r="M155" s="31"/>
     </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
@@ -6168,7 +6181,7 @@
       <c r="L156" s="31"/>
       <c r="M156" s="31"/>
     </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
       <c r="E157" s="31"/>
@@ -6181,7 +6194,7 @@
       <c r="L157" s="31"/>
       <c r="M157" s="31"/>
     </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
@@ -6194,7 +6207,7 @@
       <c r="L158" s="31"/>
       <c r="M158" s="31"/>
     </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
@@ -6207,7 +6220,7 @@
       <c r="L159" s="31"/>
       <c r="M159" s="31"/>
     </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
@@ -6220,7 +6233,7 @@
       <c r="L160" s="31"/>
       <c r="M160" s="31"/>
     </row>
-    <row r="161" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
@@ -6233,7 +6246,7 @@
       <c r="L161" s="31"/>
       <c r="M161" s="31"/>
     </row>
-    <row r="162" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
@@ -6246,7 +6259,7 @@
       <c r="L162" s="31"/>
       <c r="M162" s="31"/>
     </row>
-    <row r="163" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
@@ -6259,7 +6272,7 @@
       <c r="L163" s="31"/>
       <c r="M163" s="31"/>
     </row>
-    <row r="164" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
@@ -6272,7 +6285,7 @@
       <c r="L164" s="31"/>
       <c r="M164" s="31"/>
     </row>
-    <row r="165" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C165" s="31"/>
       <c r="D165" s="31"/>
       <c r="E165" s="31"/>
@@ -6285,7 +6298,7 @@
       <c r="L165" s="31"/>
       <c r="M165" s="31"/>
     </row>
-    <row r="166" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
@@ -6298,7 +6311,7 @@
       <c r="L166" s="31"/>
       <c r="M166" s="31"/>
     </row>
-    <row r="167" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
@@ -6311,7 +6324,7 @@
       <c r="L167" s="31"/>
       <c r="M167" s="31"/>
     </row>
-    <row r="168" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C168" s="31"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
@@ -6324,7 +6337,7 @@
       <c r="L168" s="31"/>
       <c r="M168" s="31"/>
     </row>
-    <row r="169" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
@@ -6337,7 +6350,7 @@
       <c r="L169" s="31"/>
       <c r="M169" s="31"/>
     </row>
-    <row r="170" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
@@ -6350,7 +6363,7 @@
       <c r="L170" s="31"/>
       <c r="M170" s="31"/>
     </row>
-    <row r="171" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C171" s="31"/>
       <c r="D171" s="31"/>
       <c r="E171" s="31"/>
@@ -6363,7 +6376,7 @@
       <c r="L171" s="31"/>
       <c r="M171" s="31"/>
     </row>
-    <row r="172" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
@@ -6376,7 +6389,7 @@
       <c r="L172" s="31"/>
       <c r="M172" s="31"/>
     </row>
-    <row r="173" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
       <c r="E173" s="31"/>
@@ -6389,7 +6402,7 @@
       <c r="L173" s="31"/>
       <c r="M173" s="31"/>
     </row>
-    <row r="174" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
       <c r="E174" s="31"/>
@@ -6402,7 +6415,7 @@
       <c r="L174" s="31"/>
       <c r="M174" s="31"/>
     </row>
-    <row r="175" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
       <c r="E175" s="31"/>
@@ -6415,7 +6428,7 @@
       <c r="L175" s="31"/>
       <c r="M175" s="31"/>
     </row>
-    <row r="176" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
@@ -6428,7 +6441,7 @@
       <c r="L176" s="31"/>
       <c r="M176" s="31"/>
     </row>
-    <row r="177" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="31"/>
@@ -6441,7 +6454,7 @@
       <c r="L177" s="31"/>
       <c r="M177" s="31"/>
     </row>
-    <row r="178" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="31"/>
@@ -6454,7 +6467,7 @@
       <c r="L178" s="31"/>
       <c r="M178" s="31"/>
     </row>
-    <row r="179" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
@@ -6467,7 +6480,7 @@
       <c r="L179" s="31"/>
       <c r="M179" s="31"/>
     </row>
-    <row r="180" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
@@ -6480,7 +6493,7 @@
       <c r="L180" s="31"/>
       <c r="M180" s="31"/>
     </row>
-    <row r="181" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
@@ -6493,7 +6506,7 @@
       <c r="L181" s="31"/>
       <c r="M181" s="31"/>
     </row>
-    <row r="182" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
@@ -6506,7 +6519,7 @@
       <c r="L182" s="31"/>
       <c r="M182" s="31"/>
     </row>
-    <row r="183" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
@@ -6519,7 +6532,7 @@
       <c r="L183" s="31"/>
       <c r="M183" s="31"/>
     </row>
-    <row r="184" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
@@ -6532,7 +6545,7 @@
       <c r="L184" s="31"/>
       <c r="M184" s="31"/>
     </row>
-    <row r="185" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
@@ -6545,7 +6558,7 @@
       <c r="L185" s="31"/>
       <c r="M185" s="31"/>
     </row>
-    <row r="186" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
@@ -6558,7 +6571,7 @@
       <c r="L186" s="31"/>
       <c r="M186" s="31"/>
     </row>
-    <row r="187" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
@@ -6571,7 +6584,7 @@
       <c r="L187" s="31"/>
       <c r="M187" s="31"/>
     </row>
-    <row r="188" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
@@ -6584,7 +6597,7 @@
       <c r="L188" s="31"/>
       <c r="M188" s="31"/>
     </row>
-    <row r="189" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
@@ -6597,7 +6610,7 @@
       <c r="L189" s="31"/>
       <c r="M189" s="31"/>
     </row>
-    <row r="190" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
@@ -6610,7 +6623,7 @@
       <c r="L190" s="31"/>
       <c r="M190" s="31"/>
     </row>
-    <row r="191" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
@@ -6623,7 +6636,7 @@
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
     </row>
-    <row r="192" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
@@ -6636,7 +6649,7 @@
       <c r="L192" s="31"/>
       <c r="M192" s="31"/>
     </row>
-    <row r="193" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
@@ -6649,7 +6662,7 @@
       <c r="L193" s="31"/>
       <c r="M193" s="31"/>
     </row>
-    <row r="194" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
@@ -6662,7 +6675,7 @@
       <c r="L194" s="31"/>
       <c r="M194" s="31"/>
     </row>
-    <row r="195" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
@@ -6675,7 +6688,7 @@
       <c r="L195" s="31"/>
       <c r="M195" s="31"/>
     </row>
-    <row r="196" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
@@ -6688,7 +6701,7 @@
       <c r="L196" s="31"/>
       <c r="M196" s="31"/>
     </row>
-    <row r="197" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
@@ -6701,7 +6714,7 @@
       <c r="L197" s="31"/>
       <c r="M197" s="31"/>
     </row>
-    <row r="198" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
@@ -6714,7 +6727,7 @@
       <c r="L198" s="31"/>
       <c r="M198" s="31"/>
     </row>
-    <row r="199" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
@@ -6727,7 +6740,7 @@
       <c r="L199" s="31"/>
       <c r="M199" s="31"/>
     </row>
-    <row r="200" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
@@ -6740,7 +6753,7 @@
       <c r="L200" s="31"/>
       <c r="M200" s="31"/>
     </row>
-    <row r="201" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C201" s="31"/>
       <c r="D201" s="31"/>
       <c r="E201" s="31"/>
@@ -6753,7 +6766,7 @@
       <c r="L201" s="31"/>
       <c r="M201" s="31"/>
     </row>
-    <row r="202" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C202" s="31"/>
       <c r="D202" s="31"/>
       <c r="E202" s="31"/>
@@ -6766,7 +6779,7 @@
       <c r="L202" s="31"/>
       <c r="M202" s="31"/>
     </row>
-    <row r="203" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C203" s="31"/>
       <c r="D203" s="31"/>
       <c r="E203" s="31"/>
@@ -6779,7 +6792,7 @@
       <c r="L203" s="31"/>
       <c r="M203" s="31"/>
     </row>
-    <row r="204" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C204" s="31"/>
       <c r="D204" s="31"/>
       <c r="E204" s="31"/>
@@ -6792,7 +6805,7 @@
       <c r="L204" s="31"/>
       <c r="M204" s="31"/>
     </row>
-    <row r="205" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C205" s="31"/>
       <c r="D205" s="31"/>
       <c r="E205" s="31"/>
@@ -6805,7 +6818,7 @@
       <c r="L205" s="31"/>
       <c r="M205" s="31"/>
     </row>
-    <row r="206" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C206" s="31"/>
       <c r="D206" s="31"/>
       <c r="E206" s="31"/>
@@ -6818,7 +6831,7 @@
       <c r="L206" s="31"/>
       <c r="M206" s="31"/>
     </row>
-    <row r="207" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C207" s="31"/>
       <c r="D207" s="31"/>
       <c r="E207" s="31"/>
@@ -6831,7 +6844,7 @@
       <c r="L207" s="31"/>
       <c r="M207" s="31"/>
     </row>
-    <row r="208" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C208" s="31"/>
       <c r="D208" s="31"/>
       <c r="E208" s="31"/>
@@ -6844,7 +6857,7 @@
       <c r="L208" s="31"/>
       <c r="M208" s="31"/>
     </row>
-    <row r="209" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C209" s="31"/>
       <c r="D209" s="31"/>
       <c r="E209" s="31"/>
@@ -6857,7 +6870,7 @@
       <c r="L209" s="31"/>
       <c r="M209" s="31"/>
     </row>
-    <row r="210" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
       <c r="E210" s="31"/>
@@ -6870,7 +6883,7 @@
       <c r="L210" s="31"/>
       <c r="M210" s="31"/>
     </row>
-    <row r="211" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
       <c r="E211" s="31"/>
@@ -6883,7 +6896,7 @@
       <c r="L211" s="31"/>
       <c r="M211" s="31"/>
     </row>
-    <row r="212" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
       <c r="E212" s="31"/>
@@ -6896,7 +6909,7 @@
       <c r="L212" s="31"/>
       <c r="M212" s="31"/>
     </row>
-    <row r="213" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
       <c r="E213" s="31"/>
@@ -6909,7 +6922,7 @@
       <c r="L213" s="31"/>
       <c r="M213" s="31"/>
     </row>
-    <row r="214" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C214" s="31"/>
       <c r="D214" s="31"/>
       <c r="E214" s="31"/>
@@ -6922,7 +6935,7 @@
       <c r="L214" s="31"/>
       <c r="M214" s="31"/>
     </row>
-    <row r="215" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C215" s="31"/>
       <c r="D215" s="31"/>
       <c r="E215" s="31"/>
@@ -6935,7 +6948,7 @@
       <c r="L215" s="31"/>
       <c r="M215" s="31"/>
     </row>
-    <row r="216" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C216" s="31"/>
       <c r="D216" s="31"/>
       <c r="E216" s="31"/>
@@ -6948,7 +6961,7 @@
       <c r="L216" s="31"/>
       <c r="M216" s="31"/>
     </row>
-    <row r="217" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C217" s="31"/>
       <c r="D217" s="31"/>
       <c r="E217" s="31"/>
@@ -6961,7 +6974,7 @@
       <c r="L217" s="31"/>
       <c r="M217" s="31"/>
     </row>
-    <row r="218" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C218" s="31"/>
       <c r="D218" s="31"/>
       <c r="E218" s="31"/>
@@ -6974,7 +6987,7 @@
       <c r="L218" s="31"/>
       <c r="M218" s="31"/>
     </row>
-    <row r="219" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C219" s="31"/>
       <c r="D219" s="31"/>
       <c r="E219" s="31"/>
@@ -6987,7 +7000,7 @@
       <c r="L219" s="31"/>
       <c r="M219" s="31"/>
     </row>
-    <row r="220" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C220" s="31"/>
       <c r="D220" s="31"/>
       <c r="E220" s="31"/>
@@ -7000,7 +7013,7 @@
       <c r="L220" s="31"/>
       <c r="M220" s="31"/>
     </row>
-    <row r="221" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C221" s="31"/>
       <c r="D221" s="31"/>
       <c r="E221" s="31"/>
@@ -7013,7 +7026,7 @@
       <c r="L221" s="31"/>
       <c r="M221" s="31"/>
     </row>
-    <row r="222" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C222" s="31"/>
       <c r="D222" s="31"/>
       <c r="E222" s="31"/>
@@ -7026,7 +7039,7 @@
       <c r="L222" s="31"/>
       <c r="M222" s="31"/>
     </row>
-    <row r="223" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C223" s="31"/>
       <c r="D223" s="31"/>
       <c r="E223" s="31"/>
@@ -7039,7 +7052,7 @@
       <c r="L223" s="31"/>
       <c r="M223" s="31"/>
     </row>
-    <row r="224" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C224" s="31"/>
       <c r="D224" s="31"/>
       <c r="E224" s="31"/>
@@ -7052,7 +7065,7 @@
       <c r="L224" s="31"/>
       <c r="M224" s="31"/>
     </row>
-    <row r="225" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C225" s="31"/>
       <c r="D225" s="31"/>
       <c r="E225" s="31"/>
@@ -7065,7 +7078,7 @@
       <c r="L225" s="31"/>
       <c r="M225" s="31"/>
     </row>
-    <row r="226" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C226" s="31"/>
       <c r="D226" s="31"/>
       <c r="E226" s="31"/>
@@ -7078,7 +7091,7 @@
       <c r="L226" s="31"/>
       <c r="M226" s="31"/>
     </row>
-    <row r="227" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C227" s="31"/>
       <c r="D227" s="31"/>
       <c r="E227" s="31"/>
@@ -7091,7 +7104,7 @@
       <c r="L227" s="31"/>
       <c r="M227" s="31"/>
     </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C228" s="31"/>
       <c r="D228" s="31"/>
       <c r="E228" s="31"/>
@@ -7104,7 +7117,7 @@
       <c r="L228" s="31"/>
       <c r="M228" s="31"/>
     </row>
-    <row r="229" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C229" s="31"/>
       <c r="D229" s="31"/>
       <c r="E229" s="31"/>
@@ -7117,7 +7130,7 @@
       <c r="L229" s="31"/>
       <c r="M229" s="31"/>
     </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
       <c r="E230" s="31"/>
@@ -7130,7 +7143,7 @@
       <c r="L230" s="31"/>
       <c r="M230" s="31"/>
     </row>
-    <row r="231" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
       <c r="E231" s="31"/>
@@ -7143,7 +7156,7 @@
       <c r="L231" s="31"/>
       <c r="M231" s="31"/>
     </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C232" s="31"/>
       <c r="D232" s="31"/>
       <c r="E232" s="31"/>
@@ -7156,7 +7169,7 @@
       <c r="L232" s="31"/>
       <c r="M232" s="31"/>
     </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C233" s="31"/>
       <c r="D233" s="31"/>
       <c r="E233" s="31"/>
@@ -7169,7 +7182,7 @@
       <c r="L233" s="31"/>
       <c r="M233" s="31"/>
     </row>
-    <row r="234" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C234" s="31"/>
       <c r="D234" s="31"/>
       <c r="E234" s="31"/>
@@ -7182,7 +7195,7 @@
       <c r="L234" s="31"/>
       <c r="M234" s="31"/>
     </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C235" s="31"/>
       <c r="D235" s="31"/>
       <c r="E235" s="31"/>
@@ -7195,7 +7208,7 @@
       <c r="L235" s="31"/>
       <c r="M235" s="31"/>
     </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C236" s="31"/>
       <c r="D236" s="31"/>
       <c r="E236" s="31"/>
@@ -7208,7 +7221,7 @@
       <c r="L236" s="31"/>
       <c r="M236" s="31"/>
     </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C237" s="31"/>
       <c r="D237" s="31"/>
       <c r="E237" s="31"/>
@@ -7221,7 +7234,7 @@
       <c r="L237" s="31"/>
       <c r="M237" s="31"/>
     </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C238" s="31"/>
       <c r="D238" s="31"/>
       <c r="E238" s="31"/>
@@ -7234,7 +7247,7 @@
       <c r="L238" s="31"/>
       <c r="M238" s="31"/>
     </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C239" s="31"/>
       <c r="D239" s="31"/>
       <c r="E239" s="31"/>
@@ -7247,7 +7260,7 @@
       <c r="L239" s="31"/>
       <c r="M239" s="31"/>
     </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C240" s="31"/>
       <c r="D240" s="31"/>
       <c r="E240" s="31"/>
@@ -7260,7 +7273,7 @@
       <c r="L240" s="31"/>
       <c r="M240" s="31"/>
     </row>
-    <row r="241" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C241" s="31"/>
       <c r="D241" s="31"/>
       <c r="E241" s="31"/>
@@ -7273,7 +7286,7 @@
       <c r="L241" s="31"/>
       <c r="M241" s="31"/>
     </row>
-    <row r="242" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C242" s="31"/>
       <c r="D242" s="31"/>
       <c r="E242" s="31"/>
@@ -7286,7 +7299,7 @@
       <c r="L242" s="31"/>
       <c r="M242" s="31"/>
     </row>
-    <row r="243" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C243" s="31"/>
       <c r="D243" s="31"/>
       <c r="E243" s="31"/>
@@ -7299,7 +7312,7 @@
       <c r="L243" s="31"/>
       <c r="M243" s="31"/>
     </row>
-    <row r="244" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C244" s="31"/>
       <c r="D244" s="31"/>
       <c r="E244" s="31"/>
@@ -7312,7 +7325,7 @@
       <c r="L244" s="31"/>
       <c r="M244" s="31"/>
     </row>
-    <row r="245" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C245" s="31"/>
       <c r="D245" s="31"/>
       <c r="E245" s="31"/>
@@ -7325,7 +7338,7 @@
       <c r="L245" s="31"/>
       <c r="M245" s="31"/>
     </row>
-    <row r="246" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C246" s="31"/>
       <c r="D246" s="31"/>
       <c r="E246" s="31"/>
@@ -7338,7 +7351,7 @@
       <c r="L246" s="31"/>
       <c r="M246" s="31"/>
     </row>
-    <row r="247" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C247" s="31"/>
       <c r="D247" s="31"/>
       <c r="E247" s="31"/>
@@ -7351,7 +7364,7 @@
       <c r="L247" s="31"/>
       <c r="M247" s="31"/>
     </row>
-    <row r="248" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C248" s="31"/>
       <c r="D248" s="31"/>
       <c r="E248" s="31"/>
@@ -7364,7 +7377,7 @@
       <c r="L248" s="31"/>
       <c r="M248" s="31"/>
     </row>
-    <row r="249" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C249" s="31"/>
       <c r="D249" s="31"/>
       <c r="E249" s="31"/>
@@ -7377,7 +7390,7 @@
       <c r="L249" s="31"/>
       <c r="M249" s="31"/>
     </row>
-    <row r="250" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C250" s="31"/>
       <c r="D250" s="31"/>
       <c r="E250" s="31"/>
@@ -7390,7 +7403,7 @@
       <c r="L250" s="31"/>
       <c r="M250" s="31"/>
     </row>
-    <row r="251" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C251" s="31"/>
       <c r="D251" s="31"/>
       <c r="E251" s="31"/>
@@ -7403,7 +7416,7 @@
       <c r="L251" s="31"/>
       <c r="M251" s="31"/>
     </row>
-    <row r="252" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C252" s="31"/>
       <c r="D252" s="31"/>
       <c r="E252" s="31"/>
@@ -7416,7 +7429,7 @@
       <c r="L252" s="31"/>
       <c r="M252" s="31"/>
     </row>
-    <row r="253" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C253" s="31"/>
       <c r="D253" s="31"/>
       <c r="E253" s="31"/>
@@ -7429,7 +7442,7 @@
       <c r="L253" s="31"/>
       <c r="M253" s="31"/>
     </row>
-    <row r="254" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C254" s="31"/>
       <c r="D254" s="31"/>
       <c r="E254" s="31"/>
@@ -7442,7 +7455,7 @@
       <c r="L254" s="31"/>
       <c r="M254" s="31"/>
     </row>
-    <row r="255" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C255" s="31"/>
       <c r="D255" s="31"/>
       <c r="E255" s="31"/>
@@ -7455,7 +7468,7 @@
       <c r="L255" s="31"/>
       <c r="M255" s="31"/>
     </row>
-    <row r="256" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C256" s="31"/>
       <c r="D256" s="31"/>
       <c r="E256" s="31"/>
@@ -7468,7 +7481,7 @@
       <c r="L256" s="31"/>
       <c r="M256" s="31"/>
     </row>
-    <row r="257" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C257" s="31"/>
       <c r="D257" s="31"/>
       <c r="E257" s="31"/>
@@ -7481,7 +7494,7 @@
       <c r="L257" s="31"/>
       <c r="M257" s="31"/>
     </row>
-    <row r="258" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C258" s="31"/>
       <c r="D258" s="31"/>
       <c r="E258" s="31"/>
@@ -7494,7 +7507,7 @@
       <c r="L258" s="31"/>
       <c r="M258" s="31"/>
     </row>
-    <row r="259" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C259" s="31"/>
       <c r="D259" s="31"/>
       <c r="E259" s="31"/>
@@ -7507,7 +7520,7 @@
       <c r="L259" s="31"/>
       <c r="M259" s="31"/>
     </row>
-    <row r="260" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C260" s="31"/>
       <c r="D260" s="31"/>
       <c r="E260" s="31"/>
@@ -7520,7 +7533,7 @@
       <c r="L260" s="31"/>
       <c r="M260" s="31"/>
     </row>
-    <row r="261" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C261" s="31"/>
       <c r="D261" s="31"/>
       <c r="E261" s="31"/>
@@ -7533,7 +7546,7 @@
       <c r="L261" s="31"/>
       <c r="M261" s="31"/>
     </row>
-    <row r="262" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C262" s="31"/>
       <c r="D262" s="31"/>
       <c r="E262" s="31"/>
@@ -7546,7 +7559,7 @@
       <c r="L262" s="31"/>
       <c r="M262" s="31"/>
     </row>
-    <row r="263" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C263" s="31"/>
       <c r="D263" s="31"/>
       <c r="E263" s="31"/>
@@ -7559,7 +7572,7 @@
       <c r="L263" s="31"/>
       <c r="M263" s="31"/>
     </row>
-    <row r="264" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C264" s="31"/>
       <c r="D264" s="31"/>
       <c r="E264" s="31"/>
@@ -7572,7 +7585,7 @@
       <c r="L264" s="31"/>
       <c r="M264" s="31"/>
     </row>
-    <row r="265" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C265" s="31"/>
       <c r="D265" s="31"/>
       <c r="E265" s="31"/>
@@ -7585,7 +7598,7 @@
       <c r="L265" s="31"/>
       <c r="M265" s="31"/>
     </row>
-    <row r="266" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C266" s="31"/>
       <c r="D266" s="31"/>
       <c r="E266" s="31"/>
@@ -7598,7 +7611,7 @@
       <c r="L266" s="31"/>
       <c r="M266" s="31"/>
     </row>
-    <row r="267" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C267" s="31"/>
       <c r="D267" s="31"/>
       <c r="E267" s="31"/>
@@ -7611,7 +7624,7 @@
       <c r="L267" s="31"/>
       <c r="M267" s="31"/>
     </row>
-    <row r="268" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C268" s="31"/>
       <c r="D268" s="31"/>
       <c r="E268" s="31"/>
@@ -7624,7 +7637,7 @@
       <c r="L268" s="31"/>
       <c r="M268" s="31"/>
     </row>
-    <row r="269" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C269" s="31"/>
       <c r="D269" s="31"/>
       <c r="E269" s="31"/>
@@ -7637,7 +7650,7 @@
       <c r="L269" s="31"/>
       <c r="M269" s="31"/>
     </row>
-    <row r="270" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C270" s="31"/>
       <c r="D270" s="31"/>
       <c r="E270" s="31"/>
@@ -7650,7 +7663,7 @@
       <c r="L270" s="31"/>
       <c r="M270" s="31"/>
     </row>
-    <row r="271" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C271" s="31"/>
       <c r="D271" s="31"/>
       <c r="E271" s="31"/>
@@ -7663,7 +7676,7 @@
       <c r="L271" s="31"/>
       <c r="M271" s="31"/>
     </row>
-    <row r="272" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C272" s="31"/>
       <c r="D272" s="31"/>
       <c r="E272" s="31"/>
@@ -7676,7 +7689,7 @@
       <c r="L272" s="31"/>
       <c r="M272" s="31"/>
     </row>
-    <row r="273" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C273" s="31"/>
       <c r="D273" s="31"/>
       <c r="E273" s="31"/>
@@ -7689,7 +7702,7 @@
       <c r="L273" s="31"/>
       <c r="M273" s="31"/>
     </row>
-    <row r="274" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C274" s="31"/>
       <c r="D274" s="31"/>
       <c r="E274" s="31"/>
@@ -7702,7 +7715,7 @@
       <c r="L274" s="31"/>
       <c r="M274" s="31"/>
     </row>
-    <row r="275" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C275" s="31"/>
       <c r="D275" s="31"/>
       <c r="E275" s="31"/>
@@ -7715,7 +7728,7 @@
       <c r="L275" s="31"/>
       <c r="M275" s="31"/>
     </row>
-    <row r="276" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C276" s="31"/>
       <c r="D276" s="31"/>
       <c r="E276" s="31"/>
@@ -7728,7 +7741,7 @@
       <c r="L276" s="31"/>
       <c r="M276" s="31"/>
     </row>
-    <row r="277" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C277" s="31"/>
       <c r="D277" s="31"/>
       <c r="E277" s="31"/>
@@ -7741,7 +7754,7 @@
       <c r="L277" s="31"/>
       <c r="M277" s="31"/>
     </row>
-    <row r="278" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C278" s="31"/>
       <c r="D278" s="31"/>
       <c r="E278" s="31"/>
@@ -7754,7 +7767,7 @@
       <c r="L278" s="31"/>
       <c r="M278" s="31"/>
     </row>
-    <row r="279" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C279" s="31"/>
       <c r="D279" s="31"/>
       <c r="E279" s="31"/>
@@ -7767,7 +7780,7 @@
       <c r="L279" s="31"/>
       <c r="M279" s="31"/>
     </row>
-    <row r="280" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C280" s="31"/>
       <c r="D280" s="31"/>
       <c r="E280" s="31"/>
@@ -7780,7 +7793,7 @@
       <c r="L280" s="31"/>
       <c r="M280" s="31"/>
     </row>
-    <row r="281" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C281" s="31"/>
       <c r="D281" s="31"/>
       <c r="E281" s="31"/>
@@ -7793,7 +7806,7 @@
       <c r="L281" s="31"/>
       <c r="M281" s="31"/>
     </row>
-    <row r="282" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C282" s="31"/>
       <c r="D282" s="31"/>
       <c r="E282" s="31"/>
@@ -7806,7 +7819,7 @@
       <c r="L282" s="31"/>
       <c r="M282" s="31"/>
     </row>
-    <row r="283" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C283" s="31"/>
       <c r="D283" s="31"/>
       <c r="E283" s="31"/>
@@ -7819,7 +7832,7 @@
       <c r="L283" s="31"/>
       <c r="M283" s="31"/>
     </row>
-    <row r="284" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C284" s="31"/>
       <c r="D284" s="31"/>
       <c r="E284" s="31"/>
@@ -7832,7 +7845,7 @@
       <c r="L284" s="31"/>
       <c r="M284" s="31"/>
     </row>
-    <row r="285" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C285" s="31"/>
       <c r="D285" s="31"/>
       <c r="E285" s="31"/>
@@ -7845,7 +7858,7 @@
       <c r="L285" s="31"/>
       <c r="M285" s="31"/>
     </row>
-    <row r="286" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C286" s="31"/>
       <c r="D286" s="31"/>
       <c r="E286" s="31"/>
@@ -7858,7 +7871,7 @@
       <c r="L286" s="31"/>
       <c r="M286" s="31"/>
     </row>
-    <row r="287" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C287" s="31"/>
       <c r="D287" s="31"/>
       <c r="E287" s="31"/>
@@ -7871,7 +7884,7 @@
       <c r="L287" s="31"/>
       <c r="M287" s="31"/>
     </row>
-    <row r="288" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C288" s="31"/>
       <c r="D288" s="31"/>
       <c r="E288" s="31"/>
@@ -7884,7 +7897,7 @@
       <c r="L288" s="31"/>
       <c r="M288" s="31"/>
     </row>
-    <row r="289" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C289" s="31"/>
       <c r="D289" s="31"/>
       <c r="E289" s="31"/>
@@ -7897,7 +7910,7 @@
       <c r="L289" s="31"/>
       <c r="M289" s="31"/>
     </row>
-    <row r="290" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C290" s="31"/>
       <c r="D290" s="31"/>
       <c r="E290" s="31"/>
@@ -7910,7 +7923,7 @@
       <c r="L290" s="31"/>
       <c r="M290" s="31"/>
     </row>
-    <row r="291" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C291" s="31"/>
       <c r="D291" s="31"/>
       <c r="E291" s="31"/>
@@ -7923,7 +7936,7 @@
       <c r="L291" s="31"/>
       <c r="M291" s="31"/>
     </row>
-    <row r="292" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C292" s="31"/>
       <c r="D292" s="31"/>
       <c r="E292" s="31"/>
@@ -7936,7 +7949,7 @@
       <c r="L292" s="31"/>
       <c r="M292" s="31"/>
     </row>
-    <row r="293" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C293" s="31"/>
       <c r="D293" s="31"/>
       <c r="E293" s="31"/>
@@ -7949,7 +7962,7 @@
       <c r="L293" s="31"/>
       <c r="M293" s="31"/>
     </row>
-    <row r="294" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C294" s="31"/>
       <c r="D294" s="31"/>
       <c r="E294" s="31"/>
@@ -7962,7 +7975,7 @@
       <c r="L294" s="31"/>
       <c r="M294" s="31"/>
     </row>
-    <row r="295" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C295" s="31"/>
       <c r="D295" s="31"/>
       <c r="E295" s="31"/>
@@ -7975,7 +7988,7 @@
       <c r="L295" s="31"/>
       <c r="M295" s="31"/>
     </row>
-    <row r="296" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C296" s="31"/>
       <c r="D296" s="31"/>
       <c r="E296" s="31"/>
@@ -7988,7 +8001,7 @@
       <c r="L296" s="31"/>
       <c r="M296" s="31"/>
     </row>
-    <row r="297" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C297" s="31"/>
       <c r="D297" s="31"/>
       <c r="E297" s="31"/>
@@ -8001,7 +8014,7 @@
       <c r="L297" s="31"/>
       <c r="M297" s="31"/>
     </row>
-    <row r="298" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C298" s="31"/>
       <c r="D298" s="31"/>
       <c r="E298" s="31"/>
@@ -8014,7 +8027,7 @@
       <c r="L298" s="31"/>
       <c r="M298" s="31"/>
     </row>
-    <row r="299" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C299" s="31"/>
       <c r="D299" s="31"/>
       <c r="E299" s="31"/>
@@ -8027,7 +8040,7 @@
       <c r="L299" s="31"/>
       <c r="M299" s="31"/>
     </row>
-    <row r="300" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C300" s="31"/>
       <c r="D300" s="31"/>
       <c r="E300" s="31"/>
@@ -8040,7 +8053,7 @@
       <c r="L300" s="31"/>
       <c r="M300" s="31"/>
     </row>
-    <row r="301" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C301" s="31"/>
       <c r="D301" s="31"/>
       <c r="E301" s="31"/>
@@ -8053,7 +8066,7 @@
       <c r="L301" s="31"/>
       <c r="M301" s="31"/>
     </row>
-    <row r="302" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C302" s="31"/>
       <c r="D302" s="31"/>
       <c r="E302" s="31"/>
@@ -8066,7 +8079,7 @@
       <c r="L302" s="31"/>
       <c r="M302" s="31"/>
     </row>
-    <row r="303" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C303" s="31"/>
       <c r="D303" s="31"/>
       <c r="E303" s="31"/>
@@ -8079,7 +8092,7 @@
       <c r="L303" s="31"/>
       <c r="M303" s="31"/>
     </row>
-    <row r="304" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C304" s="31"/>
       <c r="D304" s="31"/>
       <c r="E304" s="31"/>
@@ -8092,7 +8105,7 @@
       <c r="L304" s="31"/>
       <c r="M304" s="31"/>
     </row>
-    <row r="305" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C305" s="31"/>
       <c r="D305" s="31"/>
       <c r="E305" s="31"/>
@@ -8105,7 +8118,7 @@
       <c r="L305" s="31"/>
       <c r="M305" s="31"/>
     </row>
-    <row r="306" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C306" s="31"/>
       <c r="D306" s="31"/>
       <c r="E306" s="31"/>
@@ -8118,7 +8131,7 @@
       <c r="L306" s="31"/>
       <c r="M306" s="31"/>
     </row>
-    <row r="307" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C307" s="31"/>
       <c r="D307" s="31"/>
       <c r="E307" s="31"/>
@@ -8131,7 +8144,7 @@
       <c r="L307" s="31"/>
       <c r="M307" s="31"/>
     </row>
-    <row r="308" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C308" s="31"/>
       <c r="D308" s="31"/>
       <c r="E308" s="31"/>
@@ -8144,7 +8157,7 @@
       <c r="L308" s="31"/>
       <c r="M308" s="31"/>
     </row>
-    <row r="309" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C309" s="31"/>
       <c r="D309" s="31"/>
       <c r="E309" s="31"/>
@@ -8157,7 +8170,7 @@
       <c r="L309" s="31"/>
       <c r="M309" s="31"/>
     </row>
-    <row r="310" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C310" s="31"/>
       <c r="D310" s="31"/>
       <c r="E310" s="31"/>
@@ -8170,7 +8183,7 @@
       <c r="L310" s="31"/>
       <c r="M310" s="31"/>
     </row>
-    <row r="311" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C311" s="31"/>
       <c r="D311" s="31"/>
       <c r="E311" s="31"/>
@@ -8183,7 +8196,7 @@
       <c r="L311" s="31"/>
       <c r="M311" s="31"/>
     </row>
-    <row r="312" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C312" s="31"/>
       <c r="D312" s="31"/>
       <c r="E312" s="31"/>
@@ -8196,7 +8209,7 @@
       <c r="L312" s="31"/>
       <c r="M312" s="31"/>
     </row>
-    <row r="313" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C313" s="31"/>
       <c r="D313" s="31"/>
       <c r="E313" s="31"/>
@@ -8209,7 +8222,7 @@
       <c r="L313" s="31"/>
       <c r="M313" s="31"/>
     </row>
-    <row r="314" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C314" s="31"/>
       <c r="D314" s="31"/>
       <c r="E314" s="31"/>
@@ -8222,7 +8235,7 @@
       <c r="L314" s="31"/>
       <c r="M314" s="31"/>
     </row>
-    <row r="315" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C315" s="31"/>
       <c r="D315" s="31"/>
       <c r="E315" s="31"/>
@@ -8235,7 +8248,7 @@
       <c r="L315" s="31"/>
       <c r="M315" s="31"/>
     </row>
-    <row r="316" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C316" s="31"/>
       <c r="D316" s="31"/>
       <c r="E316" s="31"/>
@@ -8248,7 +8261,7 @@
       <c r="L316" s="31"/>
       <c r="M316" s="31"/>
     </row>
-    <row r="317" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C317" s="31"/>
       <c r="D317" s="31"/>
       <c r="E317" s="31"/>
@@ -8261,7 +8274,7 @@
       <c r="L317" s="31"/>
       <c r="M317" s="31"/>
     </row>
-    <row r="318" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C318" s="31"/>
       <c r="D318" s="31"/>
       <c r="E318" s="31"/>
@@ -8274,7 +8287,7 @@
       <c r="L318" s="31"/>
       <c r="M318" s="31"/>
     </row>
-    <row r="319" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C319" s="31"/>
       <c r="D319" s="31"/>
       <c r="E319" s="31"/>
@@ -8287,7 +8300,7 @@
       <c r="L319" s="31"/>
       <c r="M319" s="31"/>
     </row>
-    <row r="320" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C320" s="31"/>
       <c r="D320" s="31"/>
       <c r="E320" s="31"/>
@@ -8300,7 +8313,7 @@
       <c r="L320" s="31"/>
       <c r="M320" s="31"/>
     </row>
-    <row r="321" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C321" s="31"/>
       <c r="D321" s="31"/>
       <c r="E321" s="31"/>
@@ -8313,7 +8326,7 @@
       <c r="L321" s="31"/>
       <c r="M321" s="31"/>
     </row>
-    <row r="322" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C322" s="31"/>
       <c r="D322" s="31"/>
       <c r="E322" s="31"/>
@@ -8326,7 +8339,7 @@
       <c r="L322" s="31"/>
       <c r="M322" s="31"/>
     </row>
-    <row r="323" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C323" s="31"/>
       <c r="D323" s="31"/>
       <c r="E323" s="31"/>
@@ -8339,7 +8352,7 @@
       <c r="L323" s="31"/>
       <c r="M323" s="31"/>
     </row>
-    <row r="324" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C324" s="31"/>
       <c r="D324" s="31"/>
       <c r="E324" s="31"/>
@@ -8352,7 +8365,7 @@
       <c r="L324" s="31"/>
       <c r="M324" s="31"/>
     </row>
-    <row r="325" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C325" s="31"/>
       <c r="D325" s="31"/>
       <c r="E325" s="31"/>
@@ -8365,7 +8378,7 @@
       <c r="L325" s="31"/>
       <c r="M325" s="31"/>
     </row>
-    <row r="326" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C326" s="31"/>
       <c r="D326" s="31"/>
       <c r="E326" s="31"/>
@@ -8378,7 +8391,7 @@
       <c r="L326" s="31"/>
       <c r="M326" s="31"/>
     </row>
-    <row r="327" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C327" s="31"/>
       <c r="D327" s="31"/>
       <c r="E327" s="31"/>
@@ -8391,7 +8404,7 @@
       <c r="L327" s="31"/>
       <c r="M327" s="31"/>
     </row>
-    <row r="328" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C328" s="31"/>
       <c r="D328" s="31"/>
       <c r="E328" s="31"/>
@@ -8404,7 +8417,7 @@
       <c r="L328" s="31"/>
       <c r="M328" s="31"/>
     </row>
-    <row r="329" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C329" s="31"/>
       <c r="D329" s="31"/>
       <c r="E329" s="31"/>
@@ -8417,7 +8430,7 @@
       <c r="L329" s="31"/>
       <c r="M329" s="31"/>
     </row>
-    <row r="330" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C330" s="31"/>
       <c r="D330" s="31"/>
       <c r="E330" s="31"/>
@@ -8430,7 +8443,7 @@
       <c r="L330" s="31"/>
       <c r="M330" s="31"/>
     </row>
-    <row r="331" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C331" s="31"/>
       <c r="D331" s="31"/>
       <c r="E331" s="31"/>
@@ -8443,7 +8456,7 @@
       <c r="L331" s="31"/>
       <c r="M331" s="31"/>
     </row>
-    <row r="332" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C332" s="31"/>
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>
@@ -8456,7 +8469,7 @@
       <c r="L332" s="31"/>
       <c r="M332" s="31"/>
     </row>
-    <row r="333" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C333" s="31"/>
       <c r="D333" s="31"/>
       <c r="E333" s="31"/>
@@ -8469,7 +8482,7 @@
       <c r="L333" s="31"/>
       <c r="M333" s="31"/>
     </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C334" s="31"/>
       <c r="D334" s="31"/>
       <c r="E334" s="31"/>
@@ -8482,7 +8495,7 @@
       <c r="L334" s="31"/>
       <c r="M334" s="31"/>
     </row>
-    <row r="335" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C335" s="31"/>
       <c r="D335" s="31"/>
       <c r="E335" s="31"/>
@@ -8495,7 +8508,7 @@
       <c r="L335" s="31"/>
       <c r="M335" s="31"/>
     </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C336" s="31"/>
       <c r="D336" s="31"/>
       <c r="E336" s="31"/>
@@ -8508,7 +8521,7 @@
       <c r="L336" s="31"/>
       <c r="M336" s="31"/>
     </row>
-    <row r="337" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C337" s="31"/>
       <c r="D337" s="31"/>
       <c r="E337" s="31"/>
@@ -8521,7 +8534,7 @@
       <c r="L337" s="31"/>
       <c r="M337" s="31"/>
     </row>
-    <row r="338" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C338" s="31"/>
       <c r="D338" s="31"/>
       <c r="E338" s="31"/>
@@ -8534,7 +8547,7 @@
       <c r="L338" s="31"/>
       <c r="M338" s="31"/>
     </row>
-    <row r="339" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C339" s="31"/>
       <c r="D339" s="31"/>
       <c r="E339" s="31"/>
@@ -8547,7 +8560,7 @@
       <c r="L339" s="31"/>
       <c r="M339" s="31"/>
     </row>
-    <row r="340" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C340" s="31"/>
       <c r="D340" s="31"/>
       <c r="E340" s="31"/>
@@ -8560,7 +8573,7 @@
       <c r="L340" s="31"/>
       <c r="M340" s="31"/>
     </row>
-    <row r="341" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C341" s="31"/>
       <c r="D341" s="31"/>
       <c r="E341" s="31"/>
@@ -8573,7 +8586,7 @@
       <c r="L341" s="31"/>
       <c r="M341" s="31"/>
     </row>
-    <row r="342" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C342" s="31"/>
       <c r="D342" s="31"/>
       <c r="E342" s="31"/>
@@ -8586,7 +8599,7 @@
       <c r="L342" s="31"/>
       <c r="M342" s="31"/>
     </row>
-    <row r="343" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C343" s="31"/>
       <c r="D343" s="31"/>
       <c r="E343" s="31"/>
@@ -8599,7 +8612,7 @@
       <c r="L343" s="31"/>
       <c r="M343" s="31"/>
     </row>
-    <row r="344" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C344" s="31"/>
       <c r="D344" s="31"/>
       <c r="E344" s="31"/>
@@ -8612,7 +8625,7 @@
       <c r="L344" s="31"/>
       <c r="M344" s="31"/>
     </row>
-    <row r="345" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C345" s="31"/>
       <c r="D345" s="31"/>
       <c r="E345" s="31"/>
@@ -8625,7 +8638,7 @@
       <c r="L345" s="31"/>
       <c r="M345" s="31"/>
     </row>
-    <row r="346" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C346" s="31"/>
       <c r="D346" s="31"/>
       <c r="E346" s="31"/>
@@ -8638,7 +8651,7 @@
       <c r="L346" s="31"/>
       <c r="M346" s="31"/>
     </row>
-    <row r="347" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C347" s="31"/>
       <c r="D347" s="31"/>
       <c r="E347" s="31"/>
@@ -8651,7 +8664,7 @@
       <c r="L347" s="31"/>
       <c r="M347" s="31"/>
     </row>
-    <row r="348" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C348" s="31"/>
       <c r="D348" s="31"/>
       <c r="E348" s="31"/>
@@ -8664,7 +8677,7 @@
       <c r="L348" s="31"/>
       <c r="M348" s="31"/>
     </row>
-    <row r="349" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C349" s="31"/>
       <c r="D349" s="31"/>
       <c r="E349" s="31"/>
@@ -8677,7 +8690,7 @@
       <c r="L349" s="31"/>
       <c r="M349" s="31"/>
     </row>
-    <row r="350" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C350" s="31"/>
       <c r="D350" s="31"/>
       <c r="E350" s="31"/>
@@ -8690,7 +8703,7 @@
       <c r="L350" s="31"/>
       <c r="M350" s="31"/>
     </row>
-    <row r="351" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C351" s="31"/>
       <c r="D351" s="31"/>
       <c r="E351" s="31"/>
@@ -8703,7 +8716,7 @@
       <c r="L351" s="31"/>
       <c r="M351" s="31"/>
     </row>
-    <row r="352" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C352" s="31"/>
       <c r="D352" s="31"/>
       <c r="E352" s="31"/>
@@ -8716,7 +8729,7 @@
       <c r="L352" s="31"/>
       <c r="M352" s="31"/>
     </row>
-    <row r="353" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C353" s="31"/>
       <c r="D353" s="31"/>
       <c r="E353" s="31"/>
@@ -8729,7 +8742,7 @@
       <c r="L353" s="31"/>
       <c r="M353" s="31"/>
     </row>
-    <row r="354" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C354" s="31"/>
       <c r="D354" s="31"/>
       <c r="E354" s="31"/>
@@ -8742,7 +8755,7 @@
       <c r="L354" s="31"/>
       <c r="M354" s="31"/>
     </row>
-    <row r="355" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C355" s="31"/>
       <c r="D355" s="31"/>
       <c r="E355" s="31"/>
@@ -8755,7 +8768,7 @@
       <c r="L355" s="31"/>
       <c r="M355" s="31"/>
     </row>
-    <row r="356" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C356" s="31"/>
       <c r="D356" s="31"/>
       <c r="E356" s="31"/>
@@ -8768,7 +8781,7 @@
       <c r="L356" s="31"/>
       <c r="M356" s="31"/>
     </row>
-    <row r="357" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C357" s="31"/>
       <c r="D357" s="31"/>
       <c r="E357" s="31"/>
@@ -8781,7 +8794,7 @@
       <c r="L357" s="31"/>
       <c r="M357" s="31"/>
     </row>
-    <row r="358" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C358" s="31"/>
       <c r="D358" s="31"/>
       <c r="E358" s="31"/>
@@ -8794,7 +8807,7 @@
       <c r="L358" s="31"/>
       <c r="M358" s="31"/>
     </row>
-    <row r="359" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C359" s="31"/>
       <c r="D359" s="31"/>
       <c r="E359" s="31"/>
@@ -8807,7 +8820,7 @@
       <c r="L359" s="31"/>
       <c r="M359" s="31"/>
     </row>
-    <row r="360" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C360" s="31"/>
       <c r="D360" s="31"/>
       <c r="E360" s="31"/>
@@ -8820,7 +8833,7 @@
       <c r="L360" s="31"/>
       <c r="M360" s="31"/>
     </row>
-    <row r="361" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C361" s="31"/>
       <c r="D361" s="31"/>
       <c r="E361" s="31"/>
@@ -8833,7 +8846,7 @@
       <c r="L361" s="31"/>
       <c r="M361" s="31"/>
     </row>
-    <row r="362" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C362" s="31"/>
       <c r="D362" s="31"/>
       <c r="E362" s="31"/>
@@ -8846,7 +8859,7 @@
       <c r="L362" s="31"/>
       <c r="M362" s="31"/>
     </row>
-    <row r="363" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C363" s="31"/>
       <c r="D363" s="31"/>
       <c r="E363" s="31"/>
@@ -8859,7 +8872,7 @@
       <c r="L363" s="31"/>
       <c r="M363" s="31"/>
     </row>
-    <row r="364" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C364" s="31"/>
       <c r="D364" s="31"/>
       <c r="E364" s="31"/>
@@ -8872,7 +8885,7 @@
       <c r="L364" s="31"/>
       <c r="M364" s="31"/>
     </row>
-    <row r="365" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C365" s="31"/>
       <c r="D365" s="31"/>
       <c r="E365" s="31"/>
@@ -8885,7 +8898,7 @@
       <c r="L365" s="31"/>
       <c r="M365" s="31"/>
     </row>
-    <row r="366" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C366" s="31"/>
       <c r="D366" s="31"/>
       <c r="E366" s="31"/>
@@ -8898,7 +8911,7 @@
       <c r="L366" s="31"/>
       <c r="M366" s="31"/>
     </row>
-    <row r="367" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C367" s="31"/>
       <c r="D367" s="31"/>
       <c r="E367" s="31"/>
@@ -8911,7 +8924,7 @@
       <c r="L367" s="31"/>
       <c r="M367" s="31"/>
     </row>
-    <row r="368" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C368" s="31"/>
       <c r="D368" s="31"/>
       <c r="E368" s="31"/>
@@ -8924,7 +8937,7 @@
       <c r="L368" s="31"/>
       <c r="M368" s="31"/>
     </row>
-    <row r="369" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C369" s="31"/>
       <c r="D369" s="31"/>
       <c r="E369" s="31"/>
@@ -8937,7 +8950,7 @@
       <c r="L369" s="31"/>
       <c r="M369" s="31"/>
     </row>
-    <row r="370" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C370" s="31"/>
       <c r="D370" s="31"/>
       <c r="E370" s="31"/>
@@ -8950,7 +8963,7 @@
       <c r="L370" s="31"/>
       <c r="M370" s="31"/>
     </row>
-    <row r="371" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C371" s="31"/>
       <c r="D371" s="31"/>
       <c r="E371" s="31"/>
@@ -8963,7 +8976,7 @@
       <c r="L371" s="31"/>
       <c r="M371" s="31"/>
     </row>
-    <row r="372" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C372" s="31"/>
       <c r="D372" s="31"/>
       <c r="E372" s="31"/>
@@ -8976,7 +8989,7 @@
       <c r="L372" s="31"/>
       <c r="M372" s="31"/>
     </row>
-    <row r="373" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C373" s="31"/>
       <c r="D373" s="31"/>
       <c r="E373" s="31"/>
@@ -8989,7 +9002,7 @@
       <c r="L373" s="31"/>
       <c r="M373" s="31"/>
     </row>
-    <row r="374" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C374" s="31"/>
       <c r="D374" s="31"/>
       <c r="E374" s="31"/>
@@ -9002,7 +9015,7 @@
       <c r="L374" s="31"/>
       <c r="M374" s="31"/>
     </row>
-    <row r="375" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C375" s="31"/>
       <c r="D375" s="31"/>
       <c r="E375" s="31"/>
@@ -9015,7 +9028,7 @@
       <c r="L375" s="31"/>
       <c r="M375" s="31"/>
     </row>
-    <row r="376" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C376" s="31"/>
       <c r="D376" s="31"/>
       <c r="E376" s="31"/>
@@ -9028,7 +9041,7 @@
       <c r="L376" s="31"/>
       <c r="M376" s="31"/>
     </row>
-    <row r="377" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C377" s="31"/>
       <c r="D377" s="31"/>
       <c r="E377" s="31"/>
@@ -9041,7 +9054,7 @@
       <c r="L377" s="31"/>
       <c r="M377" s="31"/>
     </row>
-    <row r="378" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C378" s="31"/>
       <c r="D378" s="31"/>
       <c r="E378" s="31"/>
@@ -9054,7 +9067,7 @@
       <c r="L378" s="31"/>
       <c r="M378" s="31"/>
     </row>
-    <row r="379" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C379" s="31"/>
       <c r="D379" s="31"/>
       <c r="E379" s="31"/>
@@ -9067,7 +9080,7 @@
       <c r="L379" s="31"/>
       <c r="M379" s="31"/>
     </row>
-    <row r="380" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C380" s="31"/>
       <c r="D380" s="31"/>
       <c r="E380" s="31"/>
@@ -9080,7 +9093,7 @@
       <c r="L380" s="31"/>
       <c r="M380" s="31"/>
     </row>
-    <row r="381" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C381" s="31"/>
       <c r="D381" s="31"/>
       <c r="E381" s="31"/>
@@ -9093,7 +9106,7 @@
       <c r="L381" s="31"/>
       <c r="M381" s="31"/>
     </row>
-    <row r="382" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C382" s="31"/>
       <c r="D382" s="31"/>
       <c r="E382" s="31"/>
@@ -9106,7 +9119,7 @@
       <c r="L382" s="31"/>
       <c r="M382" s="31"/>
     </row>
-    <row r="383" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C383" s="31"/>
       <c r="D383" s="31"/>
       <c r="E383" s="31"/>
@@ -9119,7 +9132,7 @@
       <c r="L383" s="31"/>
       <c r="M383" s="31"/>
     </row>
-    <row r="384" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C384" s="31"/>
       <c r="D384" s="31"/>
       <c r="E384" s="31"/>
@@ -9132,7 +9145,7 @@
       <c r="L384" s="31"/>
       <c r="M384" s="31"/>
     </row>
-    <row r="385" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C385" s="31"/>
       <c r="D385" s="31"/>
       <c r="E385" s="31"/>
@@ -9145,7 +9158,7 @@
       <c r="L385" s="31"/>
       <c r="M385" s="31"/>
     </row>
-    <row r="386" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C386" s="31"/>
       <c r="D386" s="31"/>
       <c r="E386" s="31"/>
@@ -9158,7 +9171,7 @@
       <c r="L386" s="31"/>
       <c r="M386" s="31"/>
     </row>
-    <row r="387" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C387" s="31"/>
       <c r="D387" s="31"/>
       <c r="E387" s="31"/>
@@ -9171,7 +9184,7 @@
       <c r="L387" s="31"/>
       <c r="M387" s="31"/>
     </row>
-    <row r="388" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C388" s="31"/>
       <c r="D388" s="31"/>
       <c r="E388" s="31"/>
@@ -9184,7 +9197,7 @@
       <c r="L388" s="31"/>
       <c r="M388" s="31"/>
     </row>
-    <row r="389" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C389" s="31"/>
       <c r="D389" s="31"/>
       <c r="E389" s="31"/>
@@ -9197,7 +9210,7 @@
       <c r="L389" s="31"/>
       <c r="M389" s="31"/>
     </row>
-    <row r="390" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C390" s="31"/>
       <c r="D390" s="31"/>
       <c r="E390" s="31"/>
@@ -9210,7 +9223,7 @@
       <c r="L390" s="31"/>
       <c r="M390" s="31"/>
     </row>
-    <row r="391" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C391" s="31"/>
       <c r="D391" s="31"/>
       <c r="E391" s="31"/>
@@ -9223,7 +9236,7 @@
       <c r="L391" s="31"/>
       <c r="M391" s="31"/>
     </row>
-    <row r="392" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C392" s="31"/>
       <c r="D392" s="31"/>
       <c r="E392" s="31"/>
@@ -9236,7 +9249,7 @@
       <c r="L392" s="31"/>
       <c r="M392" s="31"/>
     </row>
-    <row r="393" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C393" s="31"/>
       <c r="D393" s="31"/>
       <c r="E393" s="31"/>
@@ -9249,7 +9262,7 @@
       <c r="L393" s="31"/>
       <c r="M393" s="31"/>
     </row>
-    <row r="394" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C394" s="31"/>
       <c r="D394" s="31"/>
       <c r="E394" s="31"/>
@@ -9262,7 +9275,7 @@
       <c r="L394" s="31"/>
       <c r="M394" s="31"/>
     </row>
-    <row r="395" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C395" s="31"/>
       <c r="D395" s="31"/>
       <c r="E395" s="31"/>
@@ -9275,7 +9288,7 @@
       <c r="L395" s="31"/>
       <c r="M395" s="31"/>
     </row>
-    <row r="396" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C396" s="31"/>
       <c r="D396" s="31"/>
       <c r="E396" s="31"/>
@@ -9288,7 +9301,7 @@
       <c r="L396" s="31"/>
       <c r="M396" s="31"/>
     </row>
-    <row r="397" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C397" s="31"/>
       <c r="D397" s="31"/>
       <c r="E397" s="31"/>
@@ -9301,7 +9314,7 @@
       <c r="L397" s="31"/>
       <c r="M397" s="31"/>
     </row>
-    <row r="398" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C398" s="31"/>
       <c r="D398" s="31"/>
       <c r="E398" s="31"/>
@@ -9314,7 +9327,7 @@
       <c r="L398" s="31"/>
       <c r="M398" s="31"/>
     </row>
-    <row r="399" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C399" s="31"/>
       <c r="D399" s="31"/>
       <c r="E399" s="31"/>
@@ -9327,7 +9340,7 @@
       <c r="L399" s="31"/>
       <c r="M399" s="31"/>
     </row>
-    <row r="400" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C400" s="31"/>
       <c r="D400" s="31"/>
       <c r="E400" s="31"/>
@@ -9340,7 +9353,7 @@
       <c r="L400" s="31"/>
       <c r="M400" s="31"/>
     </row>
-    <row r="401" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C401" s="31"/>
       <c r="D401" s="31"/>
       <c r="E401" s="31"/>
@@ -9353,7 +9366,7 @@
       <c r="L401" s="31"/>
       <c r="M401" s="31"/>
     </row>
-    <row r="402" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C402" s="31"/>
       <c r="D402" s="31"/>
       <c r="E402" s="31"/>
@@ -9366,7 +9379,7 @@
       <c r="L402" s="31"/>
       <c r="M402" s="31"/>
     </row>
-    <row r="403" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C403" s="31"/>
       <c r="D403" s="31"/>
       <c r="E403" s="31"/>
@@ -9379,7 +9392,7 @@
       <c r="L403" s="31"/>
       <c r="M403" s="31"/>
     </row>
-    <row r="404" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C404" s="31"/>
       <c r="D404" s="31"/>
       <c r="E404" s="31"/>
@@ -9392,7 +9405,7 @@
       <c r="L404" s="31"/>
       <c r="M404" s="31"/>
     </row>
-    <row r="405" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C405" s="31"/>
       <c r="D405" s="31"/>
       <c r="E405" s="31"/>
@@ -9405,7 +9418,7 @@
       <c r="L405" s="31"/>
       <c r="M405" s="31"/>
     </row>
-    <row r="406" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C406" s="31"/>
       <c r="D406" s="31"/>
       <c r="E406" s="31"/>
@@ -9418,7 +9431,7 @@
       <c r="L406" s="31"/>
       <c r="M406" s="31"/>
     </row>
-    <row r="407" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C407" s="31"/>
       <c r="D407" s="31"/>
       <c r="E407" s="31"/>
@@ -9431,7 +9444,7 @@
       <c r="L407" s="31"/>
       <c r="M407" s="31"/>
     </row>
-    <row r="408" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C408" s="31"/>
       <c r="D408" s="31"/>
       <c r="E408" s="31"/>
@@ -9444,7 +9457,7 @@
       <c r="L408" s="31"/>
       <c r="M408" s="31"/>
     </row>
-    <row r="409" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C409" s="31"/>
       <c r="D409" s="31"/>
       <c r="E409" s="31"/>
@@ -9457,7 +9470,7 @@
       <c r="L409" s="31"/>
       <c r="M409" s="31"/>
     </row>
-    <row r="410" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C410" s="31"/>
       <c r="D410" s="31"/>
       <c r="E410" s="31"/>
@@ -9470,7 +9483,7 @@
       <c r="L410" s="31"/>
       <c r="M410" s="31"/>
     </row>
-    <row r="411" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C411" s="31"/>
       <c r="D411" s="31"/>
       <c r="E411" s="31"/>
@@ -9483,7 +9496,7 @@
       <c r="L411" s="31"/>
       <c r="M411" s="31"/>
     </row>
-    <row r="412" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C412" s="31"/>
       <c r="D412" s="31"/>
       <c r="E412" s="31"/>
@@ -9496,7 +9509,7 @@
       <c r="L412" s="31"/>
       <c r="M412" s="31"/>
     </row>
-    <row r="413" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C413" s="31"/>
       <c r="D413" s="31"/>
       <c r="E413" s="31"/>
@@ -9509,7 +9522,7 @@
       <c r="L413" s="31"/>
       <c r="M413" s="31"/>
     </row>
-    <row r="414" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C414" s="31"/>
       <c r="D414" s="31"/>
       <c r="E414" s="31"/>
@@ -9522,7 +9535,7 @@
       <c r="L414" s="31"/>
       <c r="M414" s="31"/>
     </row>
-    <row r="415" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C415" s="31"/>
       <c r="D415" s="31"/>
       <c r="E415" s="31"/>
@@ -9535,7 +9548,7 @@
       <c r="L415" s="31"/>
       <c r="M415" s="31"/>
     </row>
-    <row r="416" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C416" s="31"/>
       <c r="D416" s="31"/>
       <c r="E416" s="31"/>
@@ -9548,7 +9561,7 @@
       <c r="L416" s="31"/>
       <c r="M416" s="31"/>
     </row>
-    <row r="417" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C417" s="31"/>
       <c r="D417" s="31"/>
       <c r="E417" s="31"/>
@@ -9561,7 +9574,7 @@
       <c r="L417" s="31"/>
       <c r="M417" s="31"/>
     </row>
-    <row r="418" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C418" s="31"/>
       <c r="D418" s="31"/>
       <c r="E418" s="31"/>
@@ -9574,7 +9587,7 @@
       <c r="L418" s="31"/>
       <c r="M418" s="31"/>
     </row>
-    <row r="419" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C419" s="31"/>
       <c r="D419" s="31"/>
       <c r="E419" s="31"/>
@@ -9587,7 +9600,7 @@
       <c r="L419" s="31"/>
       <c r="M419" s="31"/>
     </row>
-    <row r="420" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C420" s="31"/>
       <c r="D420" s="31"/>
       <c r="E420" s="31"/>
@@ -9600,7 +9613,7 @@
       <c r="L420" s="31"/>
       <c r="M420" s="31"/>
     </row>
-    <row r="421" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C421" s="31"/>
       <c r="D421" s="31"/>
       <c r="E421" s="31"/>
@@ -9613,7 +9626,7 @@
       <c r="L421" s="31"/>
       <c r="M421" s="31"/>
     </row>
-    <row r="422" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C422" s="31"/>
       <c r="D422" s="31"/>
       <c r="E422" s="31"/>
@@ -9626,7 +9639,7 @@
       <c r="L422" s="31"/>
       <c r="M422" s="31"/>
     </row>
-    <row r="423" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C423" s="31"/>
       <c r="D423" s="31"/>
       <c r="E423" s="31"/>
@@ -9639,7 +9652,7 @@
       <c r="L423" s="31"/>
       <c r="M423" s="31"/>
     </row>
-    <row r="424" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C424" s="31"/>
       <c r="D424" s="31"/>
       <c r="E424" s="31"/>
@@ -9652,7 +9665,7 @@
       <c r="L424" s="31"/>
       <c r="M424" s="31"/>
     </row>
-    <row r="425" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C425" s="31"/>
       <c r="D425" s="31"/>
       <c r="E425" s="31"/>
@@ -9665,7 +9678,7 @@
       <c r="L425" s="31"/>
       <c r="M425" s="31"/>
     </row>
-    <row r="426" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C426" s="31"/>
       <c r="D426" s="31"/>
       <c r="E426" s="31"/>
@@ -9678,7 +9691,7 @@
       <c r="L426" s="31"/>
       <c r="M426" s="31"/>
     </row>
-    <row r="427" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C427" s="31"/>
       <c r="D427" s="31"/>
       <c r="E427" s="31"/>
@@ -9691,7 +9704,7 @@
       <c r="L427" s="31"/>
       <c r="M427" s="31"/>
     </row>
-    <row r="428" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C428" s="31"/>
       <c r="D428" s="31"/>
       <c r="E428" s="31"/>
@@ -9704,7 +9717,7 @@
       <c r="L428" s="31"/>
       <c r="M428" s="31"/>
     </row>
-    <row r="429" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C429" s="31"/>
       <c r="D429" s="31"/>
       <c r="E429" s="31"/>
@@ -9717,7 +9730,7 @@
       <c r="L429" s="31"/>
       <c r="M429" s="31"/>
     </row>
-    <row r="430" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C430" s="31"/>
       <c r="D430" s="31"/>
       <c r="E430" s="31"/>
@@ -9730,7 +9743,7 @@
       <c r="L430" s="31"/>
       <c r="M430" s="31"/>
     </row>
-    <row r="431" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C431" s="31"/>
       <c r="D431" s="31"/>
       <c r="E431" s="31"/>
@@ -9743,7 +9756,7 @@
       <c r="L431" s="31"/>
       <c r="M431" s="31"/>
     </row>
-    <row r="432" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C432" s="31"/>
       <c r="D432" s="31"/>
       <c r="E432" s="31"/>
@@ -9756,7 +9769,7 @@
       <c r="L432" s="31"/>
       <c r="M432" s="31"/>
     </row>
-    <row r="433" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C433" s="31"/>
       <c r="D433" s="31"/>
       <c r="E433" s="31"/>
@@ -9769,7 +9782,7 @@
       <c r="L433" s="31"/>
       <c r="M433" s="31"/>
     </row>
-    <row r="434" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C434" s="31"/>
       <c r="D434" s="31"/>
       <c r="E434" s="31"/>
@@ -9782,7 +9795,7 @@
       <c r="L434" s="31"/>
       <c r="M434" s="31"/>
     </row>
-    <row r="435" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C435" s="31"/>
       <c r="D435" s="31"/>
       <c r="E435" s="31"/>
@@ -9795,7 +9808,7 @@
       <c r="L435" s="31"/>
       <c r="M435" s="31"/>
     </row>
-    <row r="436" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C436" s="31"/>
       <c r="D436" s="31"/>
       <c r="E436" s="31"/>
@@ -9808,7 +9821,7 @@
       <c r="L436" s="31"/>
       <c r="M436" s="31"/>
     </row>
-    <row r="437" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C437" s="31"/>
       <c r="D437" s="31"/>
       <c r="E437" s="31"/>
@@ -9821,7 +9834,7 @@
       <c r="L437" s="31"/>
       <c r="M437" s="31"/>
     </row>
-    <row r="438" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C438" s="31"/>
       <c r="D438" s="31"/>
       <c r="E438" s="31"/>
@@ -9834,7 +9847,7 @@
       <c r="L438" s="31"/>
       <c r="M438" s="31"/>
     </row>
-    <row r="439" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C439" s="31"/>
       <c r="D439" s="31"/>
       <c r="E439" s="31"/>
@@ -9847,7 +9860,7 @@
       <c r="L439" s="31"/>
       <c r="M439" s="31"/>
     </row>
-    <row r="440" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C440" s="31"/>
       <c r="D440" s="31"/>
       <c r="E440" s="31"/>
@@ -9860,7 +9873,7 @@
       <c r="L440" s="31"/>
       <c r="M440" s="31"/>
     </row>
-    <row r="441" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C441" s="31"/>
       <c r="D441" s="31"/>
       <c r="E441" s="31"/>
@@ -9873,7 +9886,7 @@
       <c r="L441" s="31"/>
       <c r="M441" s="31"/>
     </row>
-    <row r="442" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C442" s="31"/>
       <c r="D442" s="31"/>
       <c r="E442" s="31"/>
@@ -9886,7 +9899,7 @@
       <c r="L442" s="31"/>
       <c r="M442" s="31"/>
     </row>
-    <row r="443" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C443" s="31"/>
       <c r="D443" s="31"/>
       <c r="E443" s="31"/>
@@ -9899,7 +9912,7 @@
       <c r="L443" s="31"/>
       <c r="M443" s="31"/>
     </row>
-    <row r="444" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C444" s="31"/>
       <c r="D444" s="31"/>
       <c r="E444" s="31"/>
@@ -9912,7 +9925,7 @@
       <c r="L444" s="31"/>
       <c r="M444" s="31"/>
     </row>
-    <row r="445" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C445" s="31"/>
       <c r="D445" s="31"/>
       <c r="E445" s="31"/>
@@ -9925,7 +9938,7 @@
       <c r="L445" s="31"/>
       <c r="M445" s="31"/>
     </row>
-    <row r="446" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C446" s="31"/>
       <c r="D446" s="31"/>
       <c r="E446" s="31"/>
@@ -9938,7 +9951,7 @@
       <c r="L446" s="31"/>
       <c r="M446" s="31"/>
     </row>
-    <row r="447" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C447" s="31"/>
       <c r="D447" s="31"/>
       <c r="E447" s="31"/>
@@ -9951,7 +9964,7 @@
       <c r="L447" s="31"/>
       <c r="M447" s="31"/>
     </row>
-    <row r="448" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C448" s="31"/>
       <c r="D448" s="31"/>
       <c r="E448" s="31"/>
@@ -9964,7 +9977,7 @@
       <c r="L448" s="31"/>
       <c r="M448" s="31"/>
     </row>
-    <row r="449" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C449" s="31"/>
       <c r="D449" s="31"/>
       <c r="E449" s="31"/>
@@ -9977,7 +9990,7 @@
       <c r="L449" s="31"/>
       <c r="M449" s="31"/>
     </row>
-    <row r="450" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C450" s="31"/>
       <c r="D450" s="31"/>
       <c r="E450" s="31"/>
@@ -9990,7 +10003,7 @@
       <c r="L450" s="31"/>
       <c r="M450" s="31"/>
     </row>
-    <row r="451" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C451" s="31"/>
       <c r="D451" s="31"/>
       <c r="E451" s="31"/>
@@ -10003,7 +10016,7 @@
       <c r="L451" s="31"/>
       <c r="M451" s="31"/>
     </row>
-    <row r="452" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C452" s="31"/>
       <c r="D452" s="31"/>
       <c r="E452" s="31"/>
@@ -10016,7 +10029,7 @@
       <c r="L452" s="31"/>
       <c r="M452" s="31"/>
     </row>
-    <row r="453" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C453" s="31"/>
       <c r="D453" s="31"/>
       <c r="E453" s="31"/>
@@ -10029,7 +10042,7 @@
       <c r="L453" s="31"/>
       <c r="M453" s="31"/>
     </row>
-    <row r="454" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C454" s="31"/>
       <c r="D454" s="31"/>
       <c r="E454" s="31"/>
@@ -10042,7 +10055,7 @@
       <c r="L454" s="31"/>
       <c r="M454" s="31"/>
     </row>
-    <row r="455" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C455" s="31"/>
       <c r="D455" s="31"/>
       <c r="E455" s="31"/>
@@ -10055,7 +10068,7 @@
       <c r="L455" s="31"/>
       <c r="M455" s="31"/>
     </row>
-    <row r="456" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C456" s="31"/>
       <c r="D456" s="31"/>
       <c r="E456" s="31"/>
@@ -10068,7 +10081,7 @@
       <c r="L456" s="31"/>
       <c r="M456" s="31"/>
     </row>
-    <row r="457" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C457" s="31"/>
       <c r="D457" s="31"/>
       <c r="E457" s="31"/>
@@ -10081,7 +10094,7 @@
       <c r="L457" s="31"/>
       <c r="M457" s="31"/>
     </row>
-    <row r="458" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C458" s="31"/>
       <c r="D458" s="31"/>
       <c r="E458" s="31"/>
@@ -10094,7 +10107,7 @@
       <c r="L458" s="31"/>
       <c r="M458" s="31"/>
     </row>
-    <row r="459" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C459" s="31"/>
       <c r="D459" s="31"/>
       <c r="E459" s="31"/>
@@ -10107,7 +10120,7 @@
       <c r="L459" s="31"/>
       <c r="M459" s="31"/>
     </row>
-    <row r="460" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C460" s="31"/>
       <c r="D460" s="31"/>
       <c r="E460" s="31"/>
@@ -10120,7 +10133,7 @@
       <c r="L460" s="31"/>
       <c r="M460" s="31"/>
     </row>
-    <row r="461" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C461" s="31"/>
       <c r="D461" s="31"/>
       <c r="E461" s="31"/>
@@ -10133,7 +10146,7 @@
       <c r="L461" s="31"/>
       <c r="M461" s="31"/>
     </row>
-    <row r="462" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C462" s="31"/>
       <c r="D462" s="31"/>
       <c r="E462" s="31"/>
@@ -10146,7 +10159,7 @@
       <c r="L462" s="31"/>
       <c r="M462" s="31"/>
     </row>
-    <row r="463" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C463" s="31"/>
       <c r="D463" s="31"/>
       <c r="E463" s="31"/>
@@ -10159,7 +10172,7 @@
       <c r="L463" s="31"/>
       <c r="M463" s="31"/>
     </row>
-    <row r="464" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C464" s="31"/>
       <c r="D464" s="31"/>
       <c r="E464" s="31"/>
@@ -10172,7 +10185,7 @@
       <c r="L464" s="31"/>
       <c r="M464" s="31"/>
     </row>
-    <row r="465" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C465" s="31"/>
       <c r="D465" s="31"/>
       <c r="E465" s="31"/>
@@ -10185,7 +10198,7 @@
       <c r="L465" s="31"/>
       <c r="M465" s="31"/>
     </row>
-    <row r="466" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C466" s="31"/>
       <c r="D466" s="31"/>
       <c r="E466" s="31"/>
@@ -10198,7 +10211,7 @@
       <c r="L466" s="31"/>
       <c r="M466" s="31"/>
     </row>
-    <row r="467" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C467" s="31"/>
       <c r="D467" s="31"/>
       <c r="E467" s="31"/>
@@ -10211,7 +10224,7 @@
       <c r="L467" s="31"/>
       <c r="M467" s="31"/>
     </row>
-    <row r="468" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C468" s="31"/>
       <c r="D468" s="31"/>
       <c r="E468" s="31"/>
@@ -10224,7 +10237,7 @@
       <c r="L468" s="31"/>
       <c r="M468" s="31"/>
     </row>
-    <row r="469" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C469" s="31"/>
       <c r="D469" s="31"/>
       <c r="E469" s="31"/>
@@ -10237,7 +10250,7 @@
       <c r="L469" s="31"/>
       <c r="M469" s="31"/>
     </row>
-    <row r="470" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C470" s="31"/>
       <c r="D470" s="31"/>
       <c r="E470" s="31"/>
@@ -10250,7 +10263,7 @@
       <c r="L470" s="31"/>
       <c r="M470" s="31"/>
     </row>
-    <row r="471" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C471" s="31"/>
       <c r="D471" s="31"/>
       <c r="E471" s="31"/>
@@ -10263,7 +10276,7 @@
       <c r="L471" s="31"/>
       <c r="M471" s="31"/>
     </row>
-    <row r="472" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C472" s="31"/>
       <c r="D472" s="31"/>
       <c r="E472" s="31"/>
@@ -10276,7 +10289,7 @@
       <c r="L472" s="31"/>
       <c r="M472" s="31"/>
     </row>
-    <row r="473" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C473" s="31"/>
       <c r="D473" s="31"/>
       <c r="E473" s="31"/>
@@ -10289,7 +10302,7 @@
       <c r="L473" s="31"/>
       <c r="M473" s="31"/>
     </row>
-    <row r="474" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C474" s="31"/>
       <c r="D474" s="31"/>
       <c r="E474" s="31"/>
@@ -10302,7 +10315,7 @@
       <c r="L474" s="31"/>
       <c r="M474" s="31"/>
     </row>
-    <row r="475" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C475" s="31"/>
       <c r="D475" s="31"/>
       <c r="E475" s="31"/>
@@ -10315,7 +10328,7 @@
       <c r="L475" s="31"/>
       <c r="M475" s="31"/>
     </row>
-    <row r="476" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C476" s="31"/>
       <c r="D476" s="31"/>
       <c r="E476" s="31"/>
@@ -10328,7 +10341,7 @@
       <c r="L476" s="31"/>
       <c r="M476" s="31"/>
     </row>
-    <row r="477" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C477" s="31"/>
       <c r="D477" s="31"/>
       <c r="E477" s="31"/>
@@ -10341,7 +10354,7 @@
       <c r="L477" s="31"/>
       <c r="M477" s="31"/>
     </row>
-    <row r="478" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C478" s="31"/>
       <c r="D478" s="31"/>
       <c r="E478" s="31"/>
@@ -10354,7 +10367,7 @@
       <c r="L478" s="31"/>
       <c r="M478" s="31"/>
     </row>
-    <row r="479" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C479" s="31"/>
       <c r="D479" s="31"/>
       <c r="E479" s="31"/>
@@ -10367,7 +10380,7 @@
       <c r="L479" s="31"/>
       <c r="M479" s="31"/>
     </row>
-    <row r="480" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C480" s="31"/>
       <c r="D480" s="31"/>
       <c r="E480" s="31"/>
@@ -10380,7 +10393,7 @@
       <c r="L480" s="31"/>
       <c r="M480" s="31"/>
     </row>
-    <row r="481" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C481" s="31"/>
       <c r="D481" s="31"/>
       <c r="E481" s="31"/>
@@ -10393,7 +10406,7 @@
       <c r="L481" s="31"/>
       <c r="M481" s="31"/>
     </row>
-    <row r="482" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C482" s="31"/>
       <c r="D482" s="31"/>
       <c r="E482" s="31"/>
@@ -10406,7 +10419,7 @@
       <c r="L482" s="31"/>
       <c r="M482" s="31"/>
     </row>
-    <row r="483" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C483" s="31"/>
       <c r="D483" s="31"/>
       <c r="E483" s="31"/>
@@ -10419,7 +10432,7 @@
       <c r="L483" s="31"/>
       <c r="M483" s="31"/>
     </row>
-    <row r="484" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C484" s="31"/>
       <c r="D484" s="31"/>
       <c r="E484" s="31"/>
@@ -10432,7 +10445,7 @@
       <c r="L484" s="31"/>
       <c r="M484" s="31"/>
     </row>
-    <row r="485" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C485" s="31"/>
       <c r="D485" s="31"/>
       <c r="E485" s="31"/>
@@ -10445,7 +10458,7 @@
       <c r="L485" s="31"/>
       <c r="M485" s="31"/>
     </row>
-    <row r="486" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C486" s="31"/>
       <c r="D486" s="31"/>
       <c r="E486" s="31"/>
@@ -10458,7 +10471,7 @@
       <c r="L486" s="31"/>
       <c r="M486" s="31"/>
     </row>
-    <row r="487" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C487" s="31"/>
       <c r="D487" s="31"/>
       <c r="E487" s="31"/>
@@ -10471,7 +10484,7 @@
       <c r="L487" s="31"/>
       <c r="M487" s="31"/>
     </row>
-    <row r="488" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C488" s="31"/>
       <c r="D488" s="31"/>
       <c r="E488" s="31"/>
@@ -10484,7 +10497,7 @@
       <c r="L488" s="31"/>
       <c r="M488" s="31"/>
     </row>
-    <row r="489" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C489" s="31"/>
       <c r="D489" s="31"/>
       <c r="E489" s="31"/>
@@ -10497,7 +10510,7 @@
       <c r="L489" s="31"/>
       <c r="M489" s="31"/>
     </row>
-    <row r="490" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C490" s="31"/>
       <c r="D490" s="31"/>
       <c r="E490" s="31"/>
@@ -10510,7 +10523,7 @@
       <c r="L490" s="31"/>
       <c r="M490" s="31"/>
     </row>
-    <row r="491" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C491" s="31"/>
       <c r="D491" s="31"/>
       <c r="E491" s="31"/>
@@ -10523,7 +10536,7 @@
       <c r="L491" s="31"/>
       <c r="M491" s="31"/>
     </row>
-    <row r="492" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C492" s="31"/>
       <c r="D492" s="31"/>
       <c r="E492" s="31"/>
@@ -10536,7 +10549,7 @@
       <c r="L492" s="31"/>
       <c r="M492" s="31"/>
     </row>
-    <row r="493" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C493" s="31"/>
       <c r="D493" s="31"/>
       <c r="E493" s="31"/>
@@ -10549,7 +10562,7 @@
       <c r="L493" s="31"/>
       <c r="M493" s="31"/>
     </row>
-    <row r="494" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C494" s="31"/>
       <c r="D494" s="31"/>
       <c r="E494" s="31"/>
@@ -10562,7 +10575,7 @@
       <c r="L494" s="31"/>
       <c r="M494" s="31"/>
     </row>
-    <row r="495" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C495" s="31"/>
       <c r="D495" s="31"/>
       <c r="E495" s="31"/>
@@ -10575,7 +10588,7 @@
       <c r="L495" s="31"/>
       <c r="M495" s="31"/>
     </row>
-    <row r="496" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C496" s="31"/>
       <c r="D496" s="31"/>
       <c r="E496" s="31"/>
@@ -10588,7 +10601,7 @@
       <c r="L496" s="31"/>
       <c r="M496" s="31"/>
     </row>
-    <row r="497" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C497" s="31"/>
       <c r="D497" s="31"/>
       <c r="E497" s="31"/>
@@ -10601,7 +10614,7 @@
       <c r="L497" s="31"/>
       <c r="M497" s="31"/>
     </row>
-    <row r="498" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C498" s="31"/>
       <c r="D498" s="31"/>
       <c r="E498" s="31"/>
@@ -10614,7 +10627,7 @@
       <c r="L498" s="31"/>
       <c r="M498" s="31"/>
     </row>
-    <row r="499" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C499" s="31"/>
       <c r="D499" s="31"/>
       <c r="E499" s="31"/>
@@ -10627,7 +10640,7 @@
       <c r="L499" s="31"/>
       <c r="M499" s="31"/>
     </row>
-    <row r="500" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C500" s="31"/>
       <c r="D500" s="31"/>
       <c r="E500" s="31"/>
@@ -10640,7 +10653,7 @@
       <c r="L500" s="31"/>
       <c r="M500" s="31"/>
     </row>
-    <row r="501" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C501" s="31"/>
       <c r="D501" s="31"/>
       <c r="E501" s="31"/>
@@ -10653,7 +10666,7 @@
       <c r="L501" s="31"/>
       <c r="M501" s="31"/>
     </row>
-    <row r="502" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C502" s="31"/>
       <c r="D502" s="31"/>
       <c r="E502" s="31"/>
@@ -10666,7 +10679,7 @@
       <c r="L502" s="31"/>
       <c r="M502" s="31"/>
     </row>
-    <row r="503" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C503" s="31"/>
       <c r="D503" s="31"/>
       <c r="E503" s="31"/>
@@ -10679,7 +10692,7 @@
       <c r="L503" s="31"/>
       <c r="M503" s="31"/>
     </row>
-    <row r="504" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C504" s="31"/>
       <c r="D504" s="31"/>
       <c r="E504" s="31"/>
@@ -10692,7 +10705,7 @@
       <c r="L504" s="31"/>
       <c r="M504" s="31"/>
     </row>
-    <row r="505" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C505" s="31"/>
       <c r="D505" s="31"/>
       <c r="E505" s="31"/>
@@ -10705,7 +10718,7 @@
       <c r="L505" s="31"/>
       <c r="M505" s="31"/>
     </row>
-    <row r="506" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C506" s="31"/>
       <c r="D506" s="31"/>
       <c r="E506" s="31"/>
@@ -10718,7 +10731,7 @@
       <c r="L506" s="31"/>
       <c r="M506" s="31"/>
     </row>
-    <row r="507" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C507" s="31"/>
       <c r="D507" s="31"/>
       <c r="E507" s="31"/>
@@ -10731,7 +10744,7 @@
       <c r="L507" s="31"/>
       <c r="M507" s="31"/>
     </row>
-    <row r="508" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C508" s="31"/>
       <c r="D508" s="31"/>
       <c r="E508" s="31"/>
@@ -10744,7 +10757,7 @@
       <c r="L508" s="31"/>
       <c r="M508" s="31"/>
     </row>
-    <row r="509" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C509" s="31"/>
       <c r="D509" s="31"/>
       <c r="E509" s="31"/>
@@ -10757,7 +10770,7 @@
       <c r="L509" s="31"/>
       <c r="M509" s="31"/>
     </row>
-    <row r="510" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C510" s="31"/>
       <c r="D510" s="31"/>
       <c r="E510" s="31"/>
@@ -10770,7 +10783,7 @@
       <c r="L510" s="31"/>
       <c r="M510" s="31"/>
     </row>
-    <row r="511" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C511" s="31"/>
       <c r="D511" s="31"/>
       <c r="E511" s="31"/>
@@ -10783,7 +10796,7 @@
       <c r="L511" s="31"/>
       <c r="M511" s="31"/>
     </row>
-    <row r="512" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C512" s="31"/>
       <c r="D512" s="31"/>
       <c r="E512" s="31"/>
@@ -10796,7 +10809,7 @@
       <c r="L512" s="31"/>
       <c r="M512" s="31"/>
     </row>
-    <row r="513" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C513" s="31"/>
       <c r="D513" s="31"/>
       <c r="E513" s="31"/>
@@ -10809,7 +10822,7 @@
       <c r="L513" s="31"/>
       <c r="M513" s="31"/>
     </row>
-    <row r="514" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C514" s="31"/>
       <c r="D514" s="31"/>
       <c r="E514" s="31"/>
@@ -10822,7 +10835,7 @@
       <c r="L514" s="31"/>
       <c r="M514" s="31"/>
     </row>
-    <row r="515" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C515" s="31"/>
       <c r="D515" s="31"/>
       <c r="E515" s="31"/>
@@ -10835,7 +10848,7 @@
       <c r="L515" s="31"/>
       <c r="M515" s="31"/>
     </row>
-    <row r="516" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C516" s="31"/>
       <c r="D516" s="31"/>
       <c r="E516" s="31"/>
@@ -10848,7 +10861,7 @@
       <c r="L516" s="31"/>
       <c r="M516" s="31"/>
     </row>
-    <row r="517" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C517" s="31"/>
       <c r="D517" s="31"/>
       <c r="E517" s="31"/>
@@ -10861,7 +10874,7 @@
       <c r="L517" s="31"/>
       <c r="M517" s="31"/>
     </row>
-    <row r="518" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C518" s="31"/>
       <c r="D518" s="31"/>
       <c r="E518" s="31"/>
@@ -10874,7 +10887,7 @@
       <c r="L518" s="31"/>
       <c r="M518" s="31"/>
     </row>
-    <row r="519" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C519" s="31"/>
       <c r="D519" s="31"/>
       <c r="E519" s="31"/>
@@ -10887,7 +10900,7 @@
       <c r="L519" s="31"/>
       <c r="M519" s="31"/>
     </row>
-    <row r="520" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C520" s="31"/>
       <c r="D520" s="31"/>
       <c r="E520" s="31"/>
@@ -10900,7 +10913,7 @@
       <c r="L520" s="31"/>
       <c r="M520" s="31"/>
     </row>
-    <row r="521" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C521" s="31"/>
       <c r="D521" s="31"/>
       <c r="E521" s="31"/>
@@ -10913,7 +10926,7 @@
       <c r="L521" s="31"/>
       <c r="M521" s="31"/>
     </row>
-    <row r="522" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C522" s="31"/>
       <c r="D522" s="31"/>
       <c r="E522" s="31"/>
@@ -10926,7 +10939,7 @@
       <c r="L522" s="31"/>
       <c r="M522" s="31"/>
     </row>
-    <row r="523" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C523" s="31"/>
       <c r="D523" s="31"/>
       <c r="E523" s="31"/>
@@ -10939,7 +10952,7 @@
       <c r="L523" s="31"/>
       <c r="M523" s="31"/>
     </row>
-    <row r="524" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C524" s="31"/>
       <c r="D524" s="31"/>
       <c r="E524" s="31"/>
@@ -10952,7 +10965,7 @@
       <c r="L524" s="31"/>
       <c r="M524" s="31"/>
     </row>
-    <row r="525" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C525" s="31"/>
       <c r="D525" s="31"/>
       <c r="E525" s="31"/>
@@ -10965,7 +10978,7 @@
       <c r="L525" s="31"/>
       <c r="M525" s="31"/>
     </row>
-    <row r="526" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C526" s="31"/>
       <c r="D526" s="31"/>
       <c r="E526" s="31"/>
@@ -10978,7 +10991,7 @@
       <c r="L526" s="31"/>
       <c r="M526" s="31"/>
     </row>
-    <row r="527" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C527" s="31"/>
       <c r="D527" s="31"/>
       <c r="E527" s="31"/>
@@ -10991,7 +11004,7 @@
       <c r="L527" s="31"/>
       <c r="M527" s="31"/>
     </row>
-    <row r="528" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C528" s="31"/>
       <c r="D528" s="31"/>
       <c r="E528" s="31"/>
@@ -11004,7 +11017,7 @@
       <c r="L528" s="31"/>
       <c r="M528" s="31"/>
     </row>
-    <row r="529" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C529" s="31"/>
       <c r="D529" s="31"/>
       <c r="E529" s="31"/>
@@ -11017,7 +11030,7 @@
       <c r="L529" s="31"/>
       <c r="M529" s="31"/>
     </row>
-    <row r="530" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C530" s="31"/>
       <c r="D530" s="31"/>
       <c r="E530" s="31"/>
@@ -11030,7 +11043,7 @@
       <c r="L530" s="31"/>
       <c r="M530" s="31"/>
     </row>
-    <row r="531" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C531" s="31"/>
       <c r="D531" s="31"/>
       <c r="E531" s="31"/>
@@ -11043,7 +11056,7 @@
       <c r="L531" s="31"/>
       <c r="M531" s="31"/>
     </row>
-    <row r="532" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C532" s="31"/>
       <c r="D532" s="31"/>
       <c r="E532" s="31"/>
@@ -11056,7 +11069,7 @@
       <c r="L532" s="31"/>
       <c r="M532" s="31"/>
     </row>
-    <row r="533" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C533" s="31"/>
       <c r="D533" s="31"/>
       <c r="E533" s="31"/>
@@ -11069,7 +11082,7 @@
       <c r="L533" s="31"/>
       <c r="M533" s="31"/>
     </row>
-    <row r="534" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C534" s="31"/>
       <c r="D534" s="31"/>
       <c r="E534" s="31"/>
@@ -11082,7 +11095,7 @@
       <c r="L534" s="31"/>
       <c r="M534" s="31"/>
     </row>
-    <row r="535" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C535" s="31"/>
       <c r="D535" s="31"/>
       <c r="E535" s="31"/>
@@ -11095,7 +11108,7 @@
       <c r="L535" s="31"/>
       <c r="M535" s="31"/>
     </row>
-    <row r="536" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C536" s="31"/>
       <c r="D536" s="31"/>
       <c r="E536" s="31"/>
@@ -11108,7 +11121,7 @@
       <c r="L536" s="31"/>
       <c r="M536" s="31"/>
     </row>
-    <row r="537" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C537" s="31"/>
       <c r="D537" s="31"/>
       <c r="E537" s="31"/>
@@ -11121,7 +11134,7 @@
       <c r="L537" s="31"/>
       <c r="M537" s="31"/>
     </row>
-    <row r="538" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C538" s="31"/>
       <c r="D538" s="31"/>
       <c r="E538" s="31"/>
@@ -11134,7 +11147,7 @@
       <c r="L538" s="31"/>
       <c r="M538" s="31"/>
     </row>
-    <row r="539" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C539" s="31"/>
       <c r="D539" s="31"/>
       <c r="E539" s="31"/>
@@ -11147,7 +11160,7 @@
       <c r="L539" s="31"/>
       <c r="M539" s="31"/>
     </row>
-    <row r="540" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C540" s="31"/>
       <c r="D540" s="31"/>
       <c r="E540" s="31"/>
@@ -11160,7 +11173,7 @@
       <c r="L540" s="31"/>
       <c r="M540" s="31"/>
     </row>
-    <row r="541" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C541" s="31"/>
       <c r="D541" s="31"/>
       <c r="E541" s="31"/>
@@ -11173,7 +11186,7 @@
       <c r="L541" s="31"/>
       <c r="M541" s="31"/>
     </row>
-    <row r="542" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C542" s="31"/>
       <c r="D542" s="31"/>
       <c r="E542" s="31"/>
@@ -11186,7 +11199,7 @@
       <c r="L542" s="31"/>
       <c r="M542" s="31"/>
     </row>
-    <row r="543" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C543" s="31"/>
       <c r="D543" s="31"/>
       <c r="E543" s="31"/>
@@ -11199,7 +11212,7 @@
       <c r="L543" s="31"/>
       <c r="M543" s="31"/>
     </row>
-    <row r="544" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C544" s="31"/>
       <c r="D544" s="31"/>
       <c r="E544" s="31"/>
@@ -11212,7 +11225,7 @@
       <c r="L544" s="31"/>
       <c r="M544" s="31"/>
     </row>
-    <row r="545" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C545" s="31"/>
       <c r="D545" s="31"/>
       <c r="E545" s="31"/>
@@ -11225,7 +11238,7 @@
       <c r="L545" s="31"/>
       <c r="M545" s="31"/>
     </row>
-    <row r="546" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C546" s="31"/>
       <c r="D546" s="31"/>
       <c r="E546" s="31"/>
@@ -11238,7 +11251,7 @@
       <c r="L546" s="31"/>
       <c r="M546" s="31"/>
     </row>
-    <row r="547" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C547" s="31"/>
       <c r="D547" s="31"/>
       <c r="E547" s="31"/>
@@ -11251,7 +11264,7 @@
       <c r="L547" s="31"/>
       <c r="M547" s="31"/>
     </row>
-    <row r="548" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C548" s="31"/>
       <c r="D548" s="31"/>
       <c r="E548" s="31"/>
@@ -11264,7 +11277,7 @@
       <c r="L548" s="31"/>
       <c r="M548" s="31"/>
     </row>
-    <row r="549" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C549" s="31"/>
       <c r="D549" s="31"/>
       <c r="E549" s="31"/>
@@ -11277,7 +11290,7 @@
       <c r="L549" s="31"/>
       <c r="M549" s="31"/>
     </row>
-    <row r="550" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C550" s="31"/>
       <c r="D550" s="31"/>
       <c r="E550" s="31"/>
@@ -11290,7 +11303,7 @@
       <c r="L550" s="31"/>
       <c r="M550" s="31"/>
     </row>
-    <row r="551" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C551" s="31"/>
       <c r="D551" s="31"/>
       <c r="E551" s="31"/>
@@ -11303,7 +11316,7 @@
       <c r="L551" s="31"/>
       <c r="M551" s="31"/>
     </row>
-    <row r="552" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C552" s="31"/>
       <c r="D552" s="31"/>
       <c r="E552" s="31"/>
@@ -11316,7 +11329,7 @@
       <c r="L552" s="31"/>
       <c r="M552" s="31"/>
     </row>
-    <row r="553" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C553" s="31"/>
       <c r="D553" s="31"/>
       <c r="E553" s="31"/>
@@ -11329,7 +11342,7 @@
       <c r="L553" s="31"/>
       <c r="M553" s="31"/>
     </row>
-    <row r="554" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C554" s="31"/>
       <c r="D554" s="31"/>
       <c r="E554" s="31"/>
@@ -11342,7 +11355,7 @@
       <c r="L554" s="31"/>
       <c r="M554" s="31"/>
     </row>
-    <row r="555" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C555" s="31"/>
       <c r="D555" s="31"/>
       <c r="E555" s="31"/>
@@ -11355,7 +11368,7 @@
       <c r="L555" s="31"/>
       <c r="M555" s="31"/>
     </row>
-    <row r="556" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C556" s="31"/>
       <c r="D556" s="31"/>
       <c r="E556" s="31"/>
@@ -11368,7 +11381,7 @@
       <c r="L556" s="31"/>
       <c r="M556" s="31"/>
     </row>
-    <row r="557" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C557" s="31"/>
       <c r="D557" s="31"/>
       <c r="E557" s="31"/>
@@ -11381,7 +11394,7 @@
       <c r="L557" s="31"/>
       <c r="M557" s="31"/>
     </row>
-    <row r="558" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C558" s="31"/>
       <c r="D558" s="31"/>
       <c r="E558" s="31"/>
@@ -11394,7 +11407,7 @@
       <c r="L558" s="31"/>
       <c r="M558" s="31"/>
     </row>
-    <row r="559" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C559" s="31"/>
       <c r="D559" s="31"/>
       <c r="E559" s="31"/>
@@ -11407,7 +11420,7 @@
       <c r="L559" s="31"/>
       <c r="M559" s="31"/>
     </row>
-    <row r="560" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C560" s="31"/>
       <c r="D560" s="31"/>
       <c r="E560" s="31"/>
@@ -11420,7 +11433,7 @@
       <c r="L560" s="31"/>
       <c r="M560" s="31"/>
     </row>
-    <row r="561" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C561" s="31"/>
       <c r="D561" s="31"/>
       <c r="E561" s="31"/>
@@ -11433,7 +11446,7 @@
       <c r="L561" s="31"/>
       <c r="M561" s="31"/>
     </row>
-    <row r="562" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C562" s="31"/>
       <c r="D562" s="31"/>
       <c r="E562" s="31"/>
@@ -11446,7 +11459,7 @@
       <c r="L562" s="31"/>
       <c r="M562" s="31"/>
     </row>
-    <row r="563" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C563" s="31"/>
       <c r="D563" s="31"/>
       <c r="E563" s="31"/>
@@ -11459,7 +11472,7 @@
       <c r="L563" s="31"/>
       <c r="M563" s="31"/>
     </row>
-    <row r="564" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C564" s="31"/>
       <c r="D564" s="31"/>
       <c r="E564" s="31"/>
@@ -11472,7 +11485,7 @@
       <c r="L564" s="31"/>
       <c r="M564" s="31"/>
     </row>
-    <row r="565" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C565" s="31"/>
       <c r="D565" s="31"/>
       <c r="E565" s="31"/>
@@ -11485,7 +11498,7 @@
       <c r="L565" s="31"/>
       <c r="M565" s="31"/>
     </row>
-    <row r="566" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C566" s="31"/>
       <c r="D566" s="31"/>
       <c r="E566" s="31"/>
@@ -11498,7 +11511,7 @@
       <c r="L566" s="31"/>
       <c r="M566" s="31"/>
     </row>
-    <row r="567" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C567" s="31"/>
       <c r="D567" s="31"/>
       <c r="E567" s="31"/>
@@ -11511,7 +11524,7 @@
       <c r="L567" s="31"/>
       <c r="M567" s="31"/>
     </row>
-    <row r="568" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C568" s="31"/>
       <c r="D568" s="31"/>
       <c r="E568" s="31"/>
@@ -11524,7 +11537,7 @@
       <c r="L568" s="31"/>
       <c r="M568" s="31"/>
     </row>
-    <row r="569" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C569" s="31"/>
       <c r="D569" s="31"/>
       <c r="E569" s="31"/>
@@ -11537,7 +11550,7 @@
       <c r="L569" s="31"/>
       <c r="M569" s="31"/>
     </row>
-    <row r="570" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C570" s="31"/>
       <c r="D570" s="31"/>
       <c r="E570" s="31"/>
@@ -11550,7 +11563,7 @@
       <c r="L570" s="31"/>
       <c r="M570" s="31"/>
     </row>
-    <row r="571" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C571" s="31"/>
       <c r="D571" s="31"/>
       <c r="E571" s="31"/>
@@ -11563,7 +11576,7 @@
       <c r="L571" s="31"/>
       <c r="M571" s="31"/>
     </row>
-    <row r="572" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C572" s="31"/>
       <c r="D572" s="31"/>
       <c r="E572" s="31"/>
@@ -11576,7 +11589,7 @@
       <c r="L572" s="31"/>
       <c r="M572" s="31"/>
     </row>
-    <row r="573" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C573" s="31"/>
       <c r="D573" s="31"/>
       <c r="E573" s="31"/>
@@ -11589,7 +11602,7 @@
       <c r="L573" s="31"/>
       <c r="M573" s="31"/>
     </row>
-    <row r="574" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C574" s="31"/>
       <c r="D574" s="31"/>
       <c r="E574" s="31"/>
@@ -11602,7 +11615,7 @@
       <c r="L574" s="31"/>
       <c r="M574" s="31"/>
     </row>
-    <row r="575" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C575" s="31"/>
       <c r="D575" s="31"/>
       <c r="E575" s="31"/>
@@ -11615,7 +11628,7 @@
       <c r="L575" s="31"/>
       <c r="M575" s="31"/>
     </row>
-    <row r="576" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C576" s="31"/>
       <c r="D576" s="31"/>
       <c r="E576" s="31"/>
@@ -11628,7 +11641,7 @@
       <c r="L576" s="31"/>
       <c r="M576" s="31"/>
     </row>
-    <row r="577" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C577" s="31"/>
       <c r="D577" s="31"/>
       <c r="E577" s="31"/>
@@ -11657,41 +11670,41 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
